--- a/WillStokes_Week2Homework (1).xlsx
+++ b/WillStokes_Week2Homework (1).xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27316"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92B50FB4-5D83-46F0-B1E0-E4DC278747E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{61FFB2EE-F206-4BCD-9DFF-860474918599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Payments" sheetId="2" r:id="rId1"/>
+    <sheet name="Payments" sheetId="3" r:id="rId1"/>
     <sheet name="Expenses" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="5601" r:id="rId3"/>
+    <pivotCache cacheId="499" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,17 +35,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="132">
-  <si>
-    <t xml:space="preserve">Sum of  5,100.00 </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="132">
+  <si>
+    <t>Sum of Tax Inclusive Amount</t>
+  </si>
+  <si>
+    <t>Bank Code</t>
+  </si>
+  <si>
+    <t>Payment Date</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>2/14/2011</t>
-  </si>
-  <si>
     <t>B2</t>
   </si>
   <si>
@@ -73,13 +76,10 @@
     <t>Tax Inclusive Amount</t>
   </si>
   <si>
-    <t>Bank Code</t>
+    <t>Tax Code</t>
   </si>
   <si>
     <t>Account Code</t>
-  </si>
-  <si>
-    <t>Payment Date</t>
   </si>
   <si>
     <t>XY Solutions</t>
@@ -523,7 +523,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -566,12 +566,19 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -579,7 +586,40 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="21">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
     <dxf>
       <alignment wrapText="1"/>
     </dxf>
@@ -599,22 +639,16 @@
       <alignment wrapText="1"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -643,11 +677,36 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[YourName_Week2Homework.xlsx]Payments!PivotTable4</c:name>
+    <c:name>[WillStokes_Week2Homework (1).xlsx]Payments!PivotTable2</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Payments' Sheet</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -661,7 +720,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -920,7 +979,7 @@
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>1/1/2012</c:v>
+                  <c:v>1/2/2012</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1/5/2012</c:v>
@@ -935,34 +994,34 @@
                   <c:v>1/20/2012</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1/26/2012</c:v>
+                  <c:v>1/21/2012</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1/28/2012</c:v>
+                  <c:v>1/26/2012</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1/31/2012</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2/1/2012</c:v>
+                  <c:v>2/2/2012</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>2/5/2012</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2/11/2012</c:v>
+                  <c:v>2/15/2012</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2/15/2012</c:v>
+                  <c:v>2/20/2012</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2/20/2012</c:v>
+                  <c:v>2/25/2012</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2/25/2012</c:v>
+                  <c:v>2/26/2012</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2/26/2012</c:v>
+                  <c:v>2/27/2012</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>2/29/2012</c:v>
@@ -977,46 +1036,46 @@
                 <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>179</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1080</c:v>
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1392</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>20000</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>7109.25</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>514</c:v>
+                  <c:v>6720</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>170</c:v>
+                  <c:v>738.25</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>179</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>289</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1080</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20000</c:v>
+                  <c:v>2200</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2200</c:v>
+                  <c:v>6720</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16720</c:v>
+                  <c:v>514</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>3770</c:v>
@@ -1026,7 +1085,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CDD6-447D-8033-EBE50DDB37C4}"/>
+              <c16:uniqueId val="{00000001-C3F9-4C98-8F89-53DD0270A705}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1060,7 +1119,7 @@
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>1/1/2012</c:v>
+                  <c:v>1/2/2012</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1/5/2012</c:v>
@@ -1075,34 +1134,34 @@
                   <c:v>1/20/2012</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1/26/2012</c:v>
+                  <c:v>1/21/2012</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1/28/2012</c:v>
+                  <c:v>1/26/2012</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1/31/2012</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2/1/2012</c:v>
+                  <c:v>2/2/2012</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>2/5/2012</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2/11/2012</c:v>
+                  <c:v>2/15/2012</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2/15/2012</c:v>
+                  <c:v>2/20/2012</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2/20/2012</c:v>
+                  <c:v>2/25/2012</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2/25/2012</c:v>
+                  <c:v>2/26/2012</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2/26/2012</c:v>
+                  <c:v>2/27/2012</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>2/29/2012</c:v>
@@ -1122,16 +1181,16 @@
                 <c:pt idx="4">
                   <c:v>-20000</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>20000</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="10">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="11">
                   <c:v>-20000</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="13">
                   <c:v>20000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1139,7 +1198,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-CDD6-447D-8033-EBE50DDB37C4}"/>
+              <c16:uniqueId val="{00000003-C3F9-4C98-8F89-53DD0270A705}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1173,7 +1232,7 @@
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>1/1/2012</c:v>
+                  <c:v>1/2/2012</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1/5/2012</c:v>
@@ -1188,34 +1247,34 @@
                   <c:v>1/20/2012</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1/26/2012</c:v>
+                  <c:v>1/21/2012</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1/28/2012</c:v>
+                  <c:v>1/26/2012</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1/31/2012</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2/1/2012</c:v>
+                  <c:v>2/2/2012</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>2/5/2012</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2/11/2012</c:v>
+                  <c:v>2/15/2012</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2/15/2012</c:v>
+                  <c:v>2/20/2012</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2/20/2012</c:v>
+                  <c:v>2/25/2012</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2/25/2012</c:v>
+                  <c:v>2/26/2012</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2/26/2012</c:v>
+                  <c:v>2/27/2012</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>2/29/2012</c:v>
@@ -1232,10 +1291,13 @@
                 <c:pt idx="3">
                   <c:v>105</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>61</c:v>
+                </c:pt>
                 <c:pt idx="7">
                   <c:v>-170</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="12">
                   <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="15">
@@ -1246,7 +1308,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-CDD6-447D-8033-EBE50DDB37C4}"/>
+              <c16:uniqueId val="{00000005-C3F9-4C98-8F89-53DD0270A705}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1260,11 +1322,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1147057160"/>
-        <c:axId val="1147073544"/>
+        <c:axId val="845811208"/>
+        <c:axId val="846112264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1147057160"/>
+        <c:axId val="845811208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1307,7 +1369,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1147073544"/>
+        <c:crossAx val="846112264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1315,7 +1377,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1147073544"/>
+        <c:axId val="846112264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1366,7 +1428,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1147057160"/>
+        <c:crossAx val="845811208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2006,22 +2068,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF0BDFD4-0CB5-60F3-2739-D5CCDEBA843E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27F6D2EF-6199-0CFB-0E20-15E19FF45375}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2043,149 +2105,192 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Excel Services" refreshedDate="45309.787689236109" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="207" xr:uid="{5B0EE966-D5A5-4C34-9712-4C1EAD11EFB9}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Excel Services" refreshedDate="45313.841483796299" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="208" xr:uid="{3612C515-5EA5-4597-86B2-F49E9C1FB62F}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A3:I210" sheet="Expenses"/>
+    <worksheetSource ref="A2:I210" sheet="Expenses"/>
   </cacheSource>
   <cacheFields count="9">
-    <cacheField name="2/14/2011" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2011-03-01T00:00:00" maxDate="2012-03-01T00:00:00" count="107">
-        <d v="2011-03-01T00:00:00"/>
+    <cacheField name="Document Date" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2011-02-14T00:00:00" maxDate="2012-03-01T00:00:00"/>
+    </cacheField>
+    <cacheField name="Supplier" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Reference" numFmtId="0">
+      <sharedItems count="39">
+        <s v="S77782"/>
+        <s v="Invoice EXP22"/>
+        <s v="I381119"/>
+        <s v="Debit Order"/>
+        <s v="Bank Statement"/>
+        <s v="Invoice"/>
+        <s v="Cash"/>
+        <s v="TR6998"/>
+        <s v="Transfer"/>
+        <s v="Payroll"/>
+        <s v="Invoice EXP23"/>
+        <s v="Return"/>
+        <s v="IN1179"/>
+        <s v="Invoice EXP24"/>
+        <s v="S50037"/>
+        <s v="Invoice EXP25"/>
+        <s v="SA11235"/>
+        <s v="Invoice EXP26"/>
+        <s v="IN1181"/>
+        <s v="M00321037"/>
+        <s v="Invoice EXP27"/>
+        <s v="Invoice 9987"/>
+        <s v="SA11988"/>
+        <s v="Remittance"/>
+        <s v="Invoice EXP28"/>
+        <s v="Statement"/>
+        <s v="Invoice11203"/>
+        <s v="Invoice EXP29"/>
+        <s v="IN1185"/>
+        <s v="SA12741"/>
+        <s v="Invoice EXP30"/>
+        <s v="Invoice 12987"/>
+        <s v="Invoice EXP31"/>
+        <s v="M00353051"/>
+        <s v="Invoice 13432"/>
+        <s v="IN1192"/>
+        <s v="Invoice EXP32"/>
+        <s v="Invoice 14278"/>
+        <s v="Invoice EXP33"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Description" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Tax Inclusive Amount" numFmtId="43">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-20000" maxValue="20000"/>
+    </cacheField>
+    <cacheField name="Tax Code" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Bank Code" numFmtId="0">
+      <sharedItems count="3">
+        <s v="B1"/>
+        <s v="B2"/>
+        <s v="PC"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Account Code" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Payment Date" numFmtId="14">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2011-03-02T00:00:00" maxDate="2012-03-01T00:00:00" count="110">
         <d v="2011-03-02T00:00:00"/>
+        <d v="2011-03-31T00:00:00"/>
+        <d v="2011-04-01T00:00:00"/>
         <d v="2011-03-05T00:00:00"/>
         <d v="2011-03-15T00:00:00"/>
+        <d v="2011-04-02T00:00:00"/>
         <d v="2011-03-18T00:00:00"/>
         <d v="2011-03-20T00:00:00"/>
         <d v="2011-03-26T00:00:00"/>
-        <d v="2011-03-31T00:00:00"/>
-        <d v="2011-04-01T00:00:00"/>
+        <d v="2011-05-01T00:00:00"/>
         <d v="2011-04-05T00:00:00"/>
         <d v="2011-04-12T00:00:00"/>
         <d v="2011-04-15T00:00:00"/>
+        <d v="2011-05-03T00:00:00"/>
         <d v="2011-04-20T00:00:00"/>
         <d v="2011-04-25T00:00:00"/>
         <d v="2011-04-26T00:00:00"/>
-        <d v="2011-04-29T00:00:00"/>
+        <d v="2011-05-26T00:00:00"/>
+        <d v="2011-05-29T00:00:00"/>
         <d v="2011-04-30T00:00:00"/>
-        <d v="2011-05-01T00:00:00"/>
+        <d v="2011-05-31T00:00:00"/>
         <d v="2011-05-05T00:00:00"/>
         <d v="2011-05-07T00:00:00"/>
+        <d v="2011-06-06T00:00:00"/>
         <d v="2011-05-15T00:00:00"/>
+        <d v="2011-06-02T00:00:00"/>
         <d v="2011-05-20T00:00:00"/>
-        <d v="2011-05-26T00:00:00"/>
-        <d v="2011-05-29T00:00:00"/>
-        <d v="2011-05-31T00:00:00"/>
-        <d v="2011-06-01T00:00:00"/>
+        <d v="2011-07-01T00:00:00"/>
         <d v="2011-06-05T00:00:00"/>
         <d v="2011-06-15T00:00:00"/>
+        <d v="2011-07-03T00:00:00"/>
         <d v="2011-06-20T00:00:00"/>
         <d v="2011-06-22T00:00:00"/>
         <d v="2011-06-25T00:00:00"/>
         <d v="2011-06-26T00:00:00"/>
         <d v="2011-06-30T00:00:00"/>
-        <d v="2011-07-01T00:00:00"/>
-        <d v="2011-07-02T00:00:00"/>
+        <d v="2011-07-31T00:00:00"/>
+        <d v="2011-08-01T00:00:00"/>
         <d v="2011-07-05T00:00:00"/>
         <d v="2011-07-15T00:00:00"/>
+        <d v="2011-08-02T00:00:00"/>
         <d v="2011-07-16T00:00:00"/>
-        <d v="2011-07-17T00:00:00"/>
+        <d v="2011-08-16T00:00:00"/>
         <d v="2011-07-20T00:00:00"/>
-        <d v="2011-07-25T00:00:00"/>
+        <d v="2011-08-24T00:00:00"/>
         <d v="2011-07-26T00:00:00"/>
-        <d v="2011-07-31T00:00:00"/>
-        <d v="2011-08-01T00:00:00"/>
+        <d v="2011-08-31T00:00:00"/>
         <d v="2011-08-05T00:00:00"/>
         <d v="2011-08-09T00:00:00"/>
-        <d v="2011-08-13T00:00:00"/>
+        <d v="2011-09-12T00:00:00"/>
         <d v="2011-08-15T00:00:00"/>
+        <d v="2011-09-02T00:00:00"/>
         <d v="2011-08-20T00:00:00"/>
         <d v="2011-08-21T00:00:00"/>
         <d v="2011-08-25T00:00:00"/>
         <d v="2011-08-26T00:00:00"/>
-        <d v="2011-08-27T00:00:00"/>
-        <d v="2011-08-31T00:00:00"/>
-        <d v="2011-09-01T00:00:00"/>
+        <d v="2011-09-26T00:00:00"/>
+        <d v="2011-10-01T00:00:00"/>
         <d v="2011-09-05T00:00:00"/>
-        <d v="2011-09-13T00:00:00"/>
+        <d v="2011-10-13T00:00:00"/>
         <d v="2011-09-15T00:00:00"/>
+        <d v="2011-10-03T00:00:00"/>
         <d v="2011-09-18T00:00:00"/>
         <d v="2011-09-20T00:00:00"/>
         <d v="2011-09-21T00:00:00"/>
-        <d v="2011-09-24T00:00:00"/>
-        <d v="2011-09-26T00:00:00"/>
+        <d v="2011-10-24T00:00:00"/>
         <d v="2011-09-30T00:00:00"/>
-        <d v="2011-10-01T00:00:00"/>
+        <d v="2011-10-31T00:00:00"/>
+        <d v="2011-11-03T00:00:00"/>
         <d v="2011-10-04T00:00:00"/>
         <d v="2011-10-05T00:00:00"/>
         <d v="2011-10-15T00:00:00"/>
+        <d v="2011-11-02T00:00:00"/>
         <d v="2011-10-20T00:00:00"/>
-        <d v="2011-10-22T00:00:00"/>
+        <d v="2011-11-21T00:00:00"/>
         <d v="2011-10-25T00:00:00"/>
         <d v="2011-10-26T00:00:00"/>
         <d v="2011-10-28T00:00:00"/>
-        <d v="2011-10-31T00:00:00"/>
-        <d v="2011-11-01T00:00:00"/>
+        <d v="2011-12-01T00:00:00"/>
         <d v="2011-11-05T00:00:00"/>
+        <d v="2011-12-05T00:00:00"/>
         <d v="2011-11-15T00:00:00"/>
+        <d v="2011-12-03T00:00:00"/>
         <d v="2011-11-19T00:00:00"/>
         <d v="2011-11-20T00:00:00"/>
         <d v="2011-11-26T00:00:00"/>
         <d v="2011-11-30T00:00:00"/>
-        <d v="2011-12-01T00:00:00"/>
-        <d v="2011-12-05T00:00:00"/>
+        <d v="2011-12-31T00:00:00"/>
         <d v="2011-12-06T00:00:00"/>
         <d v="2011-12-15T00:00:00"/>
-        <d v="2011-12-17T00:00:00"/>
+        <d v="2012-01-02T00:00:00"/>
+        <d v="2012-01-16T00:00:00"/>
         <d v="2011-12-20T00:00:00"/>
-        <d v="2011-12-22T00:00:00"/>
+        <d v="2012-01-21T00:00:00"/>
         <d v="2011-12-25T00:00:00"/>
         <d v="2011-12-26T00:00:00"/>
-        <d v="2011-12-31T00:00:00"/>
-        <d v="2012-01-01T00:00:00"/>
+        <d v="2012-01-31T00:00:00"/>
         <d v="2012-01-05T00:00:00"/>
         <d v="2012-01-15T00:00:00"/>
-        <d v="2012-01-16T00:00:00"/>
+        <d v="2012-02-02T00:00:00"/>
         <d v="2012-01-20T00:00:00"/>
         <d v="2012-01-26T00:00:00"/>
-        <d v="2012-01-28T00:00:00"/>
-        <d v="2012-01-31T00:00:00"/>
-        <d v="2012-02-01T00:00:00"/>
+        <d v="2012-02-27T00:00:00"/>
+        <m/>
         <d v="2012-02-05T00:00:00"/>
-        <d v="2012-02-11T00:00:00"/>
         <d v="2012-02-15T00:00:00"/>
         <d v="2012-02-20T00:00:00"/>
         <d v="2012-02-25T00:00:00"/>
         <d v="2012-02-26T00:00:00"/>
         <d v="2012-02-29T00:00:00"/>
       </sharedItems>
-    </cacheField>
-    <cacheField name="XY Solutions" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="S77782" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Opening Balance" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name=" 5,100.00 " numFmtId="43">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-20000" maxValue="20000"/>
-    </cacheField>
-    <cacheField name="A" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="B1" numFmtId="0">
-      <sharedItems count="3">
-        <s v="B1"/>
-        <s v="B2"/>
-        <s v="PC"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="BS-500" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="3/2/2011" numFmtId="14">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2011-03-05T00:00:00" maxDate="2012-03-01T00:00:00"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -2197,2405 +2302,2348 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="207">
-  <r>
-    <x v="0"/>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="208">
+  <r>
+    <d v="2011-02-14T00:00:00"/>
+    <s v="XY Solutions"/>
+    <x v="0"/>
+    <s v="Opening Balance"/>
+    <n v="5100"/>
+    <s v="A"/>
+    <x v="0"/>
+    <s v="BS-500"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2011-03-01T00:00:00"/>
     <s v="IS Communications"/>
-    <s v="Invoice EXP22"/>
+    <x v="1"/>
     <s v="Internet Service Provider"/>
     <n v="179"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-380"/>
-    <d v="2011-03-31T00:00:00"/>
-  </r>
-  <r>
     <x v="1"/>
+  </r>
+  <r>
+    <d v="2011-03-02T00:00:00"/>
     <s v="Newscorp"/>
-    <s v="I381119"/>
+    <x v="2"/>
     <s v="Subscriptions"/>
     <n v="478"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-375"/>
-    <d v="2011-04-01T00:00:00"/>
-  </r>
-  <r>
     <x v="2"/>
+  </r>
+  <r>
+    <d v="2011-03-05T00:00:00"/>
     <s v="EAG Brokers"/>
-    <s v="Debit Order"/>
+    <x v="3"/>
     <s v="Insurance"/>
     <n v="340"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-340"/>
-    <d v="2011-03-05T00:00:00"/>
-  </r>
-  <r>
     <x v="3"/>
+  </r>
+  <r>
+    <d v="2011-03-15T00:00:00"/>
     <s v="Capital Bank"/>
-    <s v="Bank Statement"/>
+    <x v="4"/>
     <s v="Service Fees"/>
     <n v="50"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-315"/>
+    <x v="4"/>
+  </r>
+  <r>
     <d v="2011-03-15T00:00:00"/>
-  </r>
-  <r>
-    <x v="3"/>
     <s v="Capital Bank"/>
-    <s v="Bank Statement"/>
+    <x v="4"/>
     <s v="Service Fees"/>
     <n v="35"/>
     <s v="A"/>
     <x v="1"/>
     <s v="IS-315"/>
+    <x v="4"/>
+  </r>
+  <r>
     <d v="2011-03-15T00:00:00"/>
-  </r>
-  <r>
-    <x v="3"/>
     <s v="IAS Accountants"/>
-    <s v="Invoice"/>
+    <x v="5"/>
     <s v="Bookkeeping"/>
     <n v="1000"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-305"/>
-    <d v="2011-04-02T00:00:00"/>
-  </r>
-  <r>
-    <x v="3"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <d v="2011-03-15T00:00:00"/>
     <s v="Interflora"/>
-    <s v="Cash"/>
+    <x v="6"/>
     <s v="Flowers"/>
     <n v="90"/>
     <s v="A"/>
     <x v="2"/>
     <s v="IS-345"/>
-    <d v="2011-03-15T00:00:00"/>
-  </r>
-  <r>
     <x v="4"/>
+  </r>
+  <r>
+    <d v="2011-03-18T00:00:00"/>
     <s v="QQ International"/>
-    <s v="TR6998"/>
+    <x v="7"/>
     <s v="Parking"/>
     <n v="200"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-390"/>
-    <d v="2011-03-18T00:00:00"/>
-  </r>
-  <r>
-    <x v="5"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <d v="2011-03-20T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
-    <s v="Transfer"/>
+    <x v="8"/>
     <s v="Inter Account Transfer"/>
     <n v="-15000"/>
     <s v="E"/>
     <x v="1"/>
     <s v="BS-399"/>
+    <x v="7"/>
+  </r>
+  <r>
     <d v="2011-03-20T00:00:00"/>
-  </r>
-  <r>
-    <x v="5"/>
     <s v="Example (Pty) Ltd"/>
-    <s v="Transfer"/>
+    <x v="8"/>
     <s v="Inter Account Transfer"/>
     <n v="15000"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-399"/>
-    <d v="2011-03-20T00:00:00"/>
-  </r>
-  <r>
-    <x v="6"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <d v="2011-03-26T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
-    <s v="Payroll"/>
+    <x v="9"/>
     <s v="Salaries"/>
     <n v="13000"/>
     <s v="E"/>
     <x v="1"/>
     <s v="IS-365"/>
+    <x v="8"/>
+  </r>
+  <r>
     <d v="2011-03-26T00:00:00"/>
-  </r>
-  <r>
-    <x v="6"/>
     <s v="HP Finance"/>
-    <s v="Debit Order"/>
+    <x v="3"/>
     <s v="Capital repayment"/>
     <n v="220"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-700"/>
+    <x v="8"/>
+  </r>
+  <r>
     <d v="2011-03-26T00:00:00"/>
-  </r>
-  <r>
-    <x v="6"/>
     <s v="HP Finance"/>
-    <s v="Debit Order"/>
+    <x v="3"/>
     <s v="Interest paid"/>
     <n v="100"/>
     <s v="E"/>
     <x v="0"/>
     <s v="IS-500"/>
+    <x v="8"/>
+  </r>
+  <r>
     <d v="2011-03-26T00:00:00"/>
-  </r>
-  <r>
-    <x v="6"/>
     <s v="PR Properties"/>
-    <s v="Debit Order"/>
+    <x v="3"/>
     <s v="Rent"/>
     <n v="6400"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-350"/>
-    <d v="2011-03-26T00:00:00"/>
-  </r>
-  <r>
-    <x v="7"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <d v="2011-03-31T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
-    <s v="Bank Statement"/>
+    <x v="4"/>
     <s v="Petty Cash Reimbursement"/>
     <n v="100"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-399"/>
+    <x v="1"/>
+  </r>
+  <r>
     <d v="2011-03-31T00:00:00"/>
-  </r>
-  <r>
-    <x v="7"/>
     <s v="Example (Pty) Ltd"/>
-    <s v="Bank Statement"/>
+    <x v="4"/>
     <s v="Petty Cash Reimbursement"/>
     <n v="-100"/>
     <s v="E"/>
     <x v="2"/>
     <s v="BS-399"/>
-    <d v="2011-03-31T00:00:00"/>
-  </r>
-  <r>
-    <x v="8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2011-04-01T00:00:00"/>
     <s v="IS Communications"/>
-    <s v="Invoice EXP23"/>
+    <x v="10"/>
     <s v="Internet Service Provider"/>
     <n v="179"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-380"/>
-    <d v="2011-05-01T00:00:00"/>
-  </r>
-  <r>
     <x v="9"/>
+  </r>
+  <r>
+    <d v="2011-04-05T00:00:00"/>
     <s v="EAG Brokers"/>
-    <s v="Debit Order"/>
+    <x v="3"/>
     <s v="Insurance"/>
     <n v="340"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-340"/>
-    <d v="2011-04-05T00:00:00"/>
-  </r>
-  <r>
     <x v="10"/>
+  </r>
+  <r>
+    <d v="2011-04-12T00:00:00"/>
     <s v="Interflora"/>
-    <s v="Cash"/>
+    <x v="6"/>
     <s v="Flowers"/>
     <n v="87"/>
     <s v="A"/>
     <x v="2"/>
     <s v="IS-345"/>
-    <d v="2011-04-12T00:00:00"/>
-  </r>
-  <r>
     <x v="11"/>
+  </r>
+  <r>
+    <d v="2011-04-15T00:00:00"/>
     <s v="Capital Bank"/>
-    <s v="Bank Statement"/>
+    <x v="4"/>
     <s v="Service Fees"/>
     <n v="80"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-315"/>
+    <x v="12"/>
+  </r>
+  <r>
     <d v="2011-04-15T00:00:00"/>
-  </r>
-  <r>
-    <x v="11"/>
     <s v="Capital Bank"/>
-    <s v="Bank Statement"/>
+    <x v="4"/>
     <s v="Service Fees"/>
     <n v="35"/>
     <s v="A"/>
     <x v="1"/>
     <s v="IS-315"/>
+    <x v="12"/>
+  </r>
+  <r>
     <d v="2011-04-15T00:00:00"/>
-  </r>
-  <r>
-    <x v="11"/>
     <s v="IAS Accountants"/>
-    <s v="Invoice"/>
+    <x v="5"/>
     <s v="Bookkeeping"/>
     <n v="1000"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-305"/>
-    <d v="2011-05-03T00:00:00"/>
-  </r>
-  <r>
-    <x v="12"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <d v="2011-04-20T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
-    <s v="Transfer"/>
+    <x v="8"/>
     <s v="Inter Account Transfer"/>
     <n v="-20000"/>
     <s v="E"/>
     <x v="1"/>
     <s v="BS-399"/>
+    <x v="14"/>
+  </r>
+  <r>
     <d v="2011-04-20T00:00:00"/>
-  </r>
-  <r>
-    <x v="12"/>
     <s v="Example (Pty) Ltd"/>
-    <s v="Transfer"/>
+    <x v="8"/>
     <s v="Inter Account Transfer"/>
     <n v="20000"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-399"/>
-    <d v="2011-04-20T00:00:00"/>
-  </r>
-  <r>
-    <x v="13"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <d v="2011-04-25T00:00:00"/>
     <s v="Inland Revenue"/>
-    <s v="Return"/>
+    <x v="11"/>
     <s v="Sales Tax"/>
     <n v="1300"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-600"/>
-    <d v="2011-04-25T00:00:00"/>
-  </r>
-  <r>
-    <x v="14"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <d v="2011-04-26T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
-    <s v="Payroll"/>
+    <x v="9"/>
     <s v="Salaries"/>
     <n v="20000"/>
     <s v="E"/>
     <x v="1"/>
     <s v="IS-365"/>
+    <x v="16"/>
+  </r>
+  <r>
     <d v="2011-04-26T00:00:00"/>
-  </r>
-  <r>
-    <x v="14"/>
     <s v="Furniture City"/>
-    <s v="Invoice"/>
+    <x v="5"/>
     <s v="Furniture"/>
     <n v="3000"/>
     <s v="A"/>
     <x v="0"/>
     <s v="BS-100"/>
-    <d v="2011-05-26T00:00:00"/>
-  </r>
-  <r>
-    <x v="14"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <d v="2011-04-26T00:00:00"/>
     <s v="HP Finance"/>
-    <s v="Debit Order"/>
+    <x v="3"/>
     <s v="Capital repayment"/>
     <n v="220"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-700"/>
+    <x v="16"/>
+  </r>
+  <r>
     <d v="2011-04-26T00:00:00"/>
-  </r>
-  <r>
-    <x v="14"/>
     <s v="HP Finance"/>
-    <s v="Debit Order"/>
+    <x v="3"/>
     <s v="Interest paid"/>
     <n v="100"/>
     <s v="E"/>
     <x v="0"/>
     <s v="IS-500"/>
+    <x v="16"/>
+  </r>
+  <r>
     <d v="2011-04-26T00:00:00"/>
-  </r>
-  <r>
-    <x v="14"/>
     <s v="PR Properties"/>
-    <s v="Debit Order"/>
+    <x v="3"/>
     <s v="Rent"/>
     <n v="6400"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-350"/>
-    <d v="2011-04-26T00:00:00"/>
-  </r>
-  <r>
-    <x v="15"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <d v="2011-04-29T00:00:00"/>
     <s v="GF Supplies"/>
-    <s v="IN1179"/>
+    <x v="12"/>
     <s v="Consumables"/>
     <n v="41"/>
     <s v="A"/>
     <x v="2"/>
     <s v="IS-325"/>
-    <d v="2011-05-29T00:00:00"/>
-  </r>
-  <r>
-    <x v="16"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <d v="2011-04-30T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
-    <s v="Bank Statement"/>
+    <x v="4"/>
     <s v="Petty Cash Reimbursement"/>
     <n v="100"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-399"/>
+    <x v="19"/>
+  </r>
+  <r>
     <d v="2011-04-30T00:00:00"/>
-  </r>
-  <r>
-    <x v="16"/>
     <s v="Example (Pty) Ltd"/>
-    <s v="Bank Statement"/>
+    <x v="4"/>
     <s v="Petty Cash Reimbursement"/>
     <n v="-100"/>
     <s v="E"/>
     <x v="2"/>
     <s v="BS-399"/>
-    <d v="2011-04-30T00:00:00"/>
-  </r>
-  <r>
-    <x v="17"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <d v="2011-05-01T00:00:00"/>
     <s v="IS Communications"/>
-    <s v="Invoice EXP24"/>
+    <x v="13"/>
     <s v="Internet Service Provider"/>
     <n v="179"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-380"/>
-    <d v="2011-05-31T00:00:00"/>
-  </r>
-  <r>
-    <x v="17"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <d v="2011-05-01T00:00:00"/>
     <s v="Training Inc"/>
-    <s v="Invoice"/>
+    <x v="5"/>
     <s v="Course"/>
     <n v="220"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-385"/>
-    <d v="2011-05-31T00:00:00"/>
-  </r>
-  <r>
-    <x v="18"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <d v="2011-05-05T00:00:00"/>
     <s v="EAG Brokers"/>
-    <s v="Debit Order"/>
+    <x v="3"/>
     <s v="Insurance"/>
     <n v="340"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-340"/>
-    <d v="2011-05-05T00:00:00"/>
-  </r>
-  <r>
-    <x v="19"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <d v="2011-05-07T00:00:00"/>
     <s v="City Lodge"/>
-    <s v="S50037"/>
+    <x v="14"/>
     <s v="Accommodation"/>
     <n v="563"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-390"/>
+    <x v="22"/>
+  </r>
+  <r>
     <d v="2011-05-07T00:00:00"/>
-  </r>
-  <r>
-    <x v="19"/>
     <s v="Waltons"/>
-    <s v="Invoice"/>
+    <x v="5"/>
     <s v="Stationery"/>
     <n v="982"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-370"/>
-    <d v="2011-06-06T00:00:00"/>
-  </r>
-  <r>
-    <x v="20"/>
+    <x v="23"/>
+  </r>
+  <r>
+    <d v="2011-05-15T00:00:00"/>
     <s v="Capital Bank"/>
-    <s v="Bank Statement"/>
+    <x v="4"/>
     <s v="Service Fees"/>
     <n v="80"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-315"/>
+    <x v="24"/>
+  </r>
+  <r>
     <d v="2011-05-15T00:00:00"/>
-  </r>
-  <r>
-    <x v="20"/>
     <s v="Capital Bank"/>
-    <s v="Bank Statement"/>
+    <x v="4"/>
     <s v="Service Fees"/>
     <n v="35"/>
     <s v="A"/>
     <x v="1"/>
     <s v="IS-315"/>
+    <x v="24"/>
+  </r>
+  <r>
     <d v="2011-05-15T00:00:00"/>
-  </r>
-  <r>
-    <x v="20"/>
     <s v="IAS Accountants"/>
-    <s v="Invoice"/>
+    <x v="5"/>
     <s v="Bookkeeping"/>
     <n v="1000"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-305"/>
-    <d v="2011-06-02T00:00:00"/>
-  </r>
-  <r>
-    <x v="21"/>
+    <x v="25"/>
+  </r>
+  <r>
+    <d v="2011-05-20T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
-    <s v="Transfer"/>
+    <x v="8"/>
     <s v="Inter Account Transfer"/>
     <n v="-20000"/>
     <s v="E"/>
     <x v="1"/>
     <s v="BS-399"/>
+    <x v="26"/>
+  </r>
+  <r>
     <d v="2011-05-20T00:00:00"/>
-  </r>
-  <r>
-    <x v="21"/>
     <s v="Example (Pty) Ltd"/>
-    <s v="Transfer"/>
+    <x v="8"/>
     <s v="Inter Account Transfer"/>
     <n v="20000"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-399"/>
-    <d v="2011-05-20T00:00:00"/>
-  </r>
-  <r>
-    <x v="22"/>
+    <x v="26"/>
+  </r>
+  <r>
+    <d v="2011-05-26T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
-    <s v="Payroll"/>
+    <x v="9"/>
     <s v="Salaries"/>
     <n v="20000"/>
     <s v="E"/>
     <x v="1"/>
     <s v="IS-365"/>
+    <x v="17"/>
+  </r>
+  <r>
     <d v="2011-05-26T00:00:00"/>
-  </r>
-  <r>
-    <x v="22"/>
     <s v="HP Finance"/>
-    <s v="Debit Order"/>
+    <x v="3"/>
     <s v="Capital repayment"/>
     <n v="220"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-700"/>
+    <x v="17"/>
+  </r>
+  <r>
     <d v="2011-05-26T00:00:00"/>
-  </r>
-  <r>
-    <x v="22"/>
     <s v="HP Finance"/>
-    <s v="Debit Order"/>
+    <x v="3"/>
     <s v="Interest paid"/>
     <n v="100"/>
     <s v="E"/>
     <x v="0"/>
     <s v="IS-500"/>
+    <x v="17"/>
+  </r>
+  <r>
     <d v="2011-05-26T00:00:00"/>
-  </r>
-  <r>
-    <x v="22"/>
     <s v="PR Properties"/>
-    <s v="Debit Order"/>
+    <x v="3"/>
     <s v="Rent"/>
     <n v="6400"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-350"/>
-    <d v="2011-05-26T00:00:00"/>
-  </r>
-  <r>
-    <x v="23"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <d v="2011-05-29T00:00:00"/>
     <s v="Interflora"/>
-    <s v="Cash"/>
+    <x v="6"/>
     <s v="Flowers"/>
     <n v="65"/>
     <s v="A"/>
     <x v="2"/>
     <s v="IS-345"/>
-    <d v="2011-05-29T00:00:00"/>
-  </r>
-  <r>
-    <x v="24"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <d v="2011-05-31T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
-    <s v="Bank Statement"/>
+    <x v="4"/>
     <s v="Petty Cash Reimbursement"/>
     <n v="100"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-399"/>
+    <x v="20"/>
+  </r>
+  <r>
     <d v="2011-05-31T00:00:00"/>
-  </r>
-  <r>
-    <x v="24"/>
     <s v="Example (Pty) Ltd"/>
-    <s v="Bank Statement"/>
+    <x v="4"/>
     <s v="Petty Cash Reimbursement"/>
     <n v="-100"/>
     <s v="E"/>
     <x v="2"/>
     <s v="BS-399"/>
-    <d v="2011-05-31T00:00:00"/>
-  </r>
-  <r>
-    <x v="25"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <d v="2011-06-01T00:00:00"/>
     <s v="IS Communications"/>
-    <s v="Invoice EXP25"/>
+    <x v="15"/>
     <s v="Internet Service Provider"/>
     <n v="179"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-380"/>
-    <d v="2011-07-01T00:00:00"/>
-  </r>
-  <r>
-    <x v="26"/>
+    <x v="27"/>
+  </r>
+  <r>
+    <d v="2011-06-05T00:00:00"/>
     <s v="EAG Brokers"/>
-    <s v="Debit Order"/>
+    <x v="3"/>
     <s v="Insurance"/>
     <n v="340"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-340"/>
-    <d v="2011-06-05T00:00:00"/>
-  </r>
-  <r>
-    <x v="27"/>
+    <x v="28"/>
+  </r>
+  <r>
+    <d v="2011-06-15T00:00:00"/>
     <s v="Capital Bank"/>
-    <s v="Bank Statement"/>
+    <x v="4"/>
     <s v="Service Fees"/>
     <n v="80"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-315"/>
+    <x v="29"/>
+  </r>
+  <r>
     <d v="2011-06-15T00:00:00"/>
-  </r>
-  <r>
-    <x v="27"/>
     <s v="Capital Bank"/>
-    <s v="Bank Statement"/>
+    <x v="4"/>
     <s v="Service Fees"/>
     <n v="35"/>
     <s v="A"/>
     <x v="1"/>
     <s v="IS-315"/>
+    <x v="29"/>
+  </r>
+  <r>
     <d v="2011-06-15T00:00:00"/>
-  </r>
-  <r>
-    <x v="27"/>
     <s v="IAS Accountants"/>
-    <s v="Invoice"/>
+    <x v="5"/>
     <s v="Bookkeeping"/>
     <n v="1000"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-305"/>
-    <d v="2011-07-03T00:00:00"/>
-  </r>
-  <r>
-    <x v="28"/>
+    <x v="30"/>
+  </r>
+  <r>
+    <d v="2011-06-20T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
-    <s v="Transfer"/>
+    <x v="8"/>
     <s v="Inter Account Transfer"/>
     <n v="-20000"/>
     <s v="E"/>
     <x v="1"/>
     <s v="BS-399"/>
+    <x v="31"/>
+  </r>
+  <r>
     <d v="2011-06-20T00:00:00"/>
-  </r>
-  <r>
-    <x v="28"/>
     <s v="Example (Pty) Ltd"/>
-    <s v="Transfer"/>
+    <x v="8"/>
     <s v="Inter Account Transfer"/>
     <n v="20000"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-399"/>
-    <d v="2011-06-20T00:00:00"/>
-  </r>
-  <r>
-    <x v="29"/>
+    <x v="31"/>
+  </r>
+  <r>
+    <d v="2011-06-22T00:00:00"/>
     <s v="Interflora"/>
-    <s v="Cash"/>
+    <x v="6"/>
     <s v="Flowers"/>
     <n v="110"/>
     <s v="A"/>
     <x v="2"/>
     <s v="IS-345"/>
-    <d v="2011-06-22T00:00:00"/>
-  </r>
-  <r>
-    <x v="30"/>
+    <x v="32"/>
+  </r>
+  <r>
+    <d v="2011-06-25T00:00:00"/>
     <s v="Inland Revenue"/>
-    <s v="Return"/>
+    <x v="11"/>
     <s v="Sales Tax"/>
     <n v="8700"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-600"/>
-    <d v="2011-06-25T00:00:00"/>
-  </r>
-  <r>
-    <x v="31"/>
+    <x v="33"/>
+  </r>
+  <r>
+    <d v="2011-06-26T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
-    <s v="Payroll"/>
+    <x v="9"/>
     <s v="Salaries"/>
     <n v="20000"/>
     <s v="E"/>
     <x v="1"/>
     <s v="IS-365"/>
+    <x v="34"/>
+  </r>
+  <r>
     <d v="2011-06-26T00:00:00"/>
-  </r>
-  <r>
-    <x v="31"/>
     <s v="HP Finance"/>
-    <s v="Debit Order"/>
+    <x v="3"/>
     <s v="Capital repayment"/>
     <n v="220"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-700"/>
+    <x v="34"/>
+  </r>
+  <r>
     <d v="2011-06-26T00:00:00"/>
-  </r>
-  <r>
-    <x v="31"/>
     <s v="HP Finance"/>
-    <s v="Debit Order"/>
+    <x v="3"/>
     <s v="Interest paid"/>
     <n v="100"/>
     <s v="E"/>
     <x v="0"/>
     <s v="IS-500"/>
+    <x v="34"/>
+  </r>
+  <r>
     <d v="2011-06-26T00:00:00"/>
-  </r>
-  <r>
-    <x v="31"/>
     <s v="PR Properties"/>
-    <s v="Debit Order"/>
+    <x v="3"/>
     <s v="Rent"/>
     <n v="6400"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-350"/>
+    <x v="34"/>
+  </r>
+  <r>
     <d v="2011-06-26T00:00:00"/>
-  </r>
-  <r>
-    <x v="31"/>
     <s v="SA Airlines"/>
-    <s v="SA11235"/>
+    <x v="16"/>
     <s v="Travel"/>
     <n v="1782"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-390"/>
-    <d v="2011-06-26T00:00:00"/>
-  </r>
-  <r>
-    <x v="32"/>
+    <x v="34"/>
+  </r>
+  <r>
+    <d v="2011-06-30T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
-    <s v="Bank Statement"/>
+    <x v="4"/>
     <s v="Petty Cash Reimbursement"/>
     <n v="100"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-399"/>
+    <x v="35"/>
+  </r>
+  <r>
     <d v="2011-06-30T00:00:00"/>
-  </r>
-  <r>
-    <x v="32"/>
     <s v="Example (Pty) Ltd"/>
-    <s v="Bank Statement"/>
+    <x v="4"/>
     <s v="Petty Cash Reimbursement"/>
     <n v="-100"/>
     <s v="E"/>
     <x v="2"/>
     <s v="BS-399"/>
-    <d v="2011-06-30T00:00:00"/>
-  </r>
-  <r>
-    <x v="33"/>
+    <x v="35"/>
+  </r>
+  <r>
+    <d v="2011-07-01T00:00:00"/>
     <s v="IS Communications"/>
-    <s v="Invoice EXP26"/>
+    <x v="17"/>
     <s v="Internet Service Provider"/>
     <n v="179"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-380"/>
-    <d v="2011-07-31T00:00:00"/>
-  </r>
-  <r>
-    <x v="34"/>
+    <x v="36"/>
+  </r>
+  <r>
+    <d v="2011-07-02T00:00:00"/>
     <s v="Waltons"/>
-    <s v="Invoice"/>
+    <x v="5"/>
     <s v="Stationery"/>
     <n v="761"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-370"/>
-    <d v="2011-08-01T00:00:00"/>
-  </r>
-  <r>
-    <x v="35"/>
+    <x v="37"/>
+  </r>
+  <r>
+    <d v="2011-07-05T00:00:00"/>
     <s v="EAG Brokers"/>
-    <s v="Debit Order"/>
+    <x v="3"/>
     <s v="Insurance"/>
     <n v="340"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-340"/>
-    <d v="2011-07-05T00:00:00"/>
-  </r>
-  <r>
-    <x v="36"/>
+    <x v="38"/>
+  </r>
+  <r>
+    <d v="2011-07-15T00:00:00"/>
     <s v="Capital Bank"/>
-    <s v="Bank Statement"/>
+    <x v="4"/>
     <s v="Service Fees"/>
     <n v="80"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-315"/>
+    <x v="39"/>
+  </r>
+  <r>
     <d v="2011-07-15T00:00:00"/>
-  </r>
-  <r>
-    <x v="36"/>
     <s v="Capital Bank"/>
-    <s v="Bank Statement"/>
+    <x v="4"/>
     <s v="Service Fees"/>
     <n v="35"/>
     <s v="A"/>
     <x v="1"/>
     <s v="IS-315"/>
+    <x v="39"/>
+  </r>
+  <r>
     <d v="2011-07-15T00:00:00"/>
-  </r>
-  <r>
-    <x v="36"/>
     <s v="IAS Accountants"/>
-    <s v="Invoice"/>
+    <x v="5"/>
     <s v="Bookkeeping"/>
     <n v="1000"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-305"/>
-    <d v="2011-08-02T00:00:00"/>
-  </r>
-  <r>
-    <x v="37"/>
+    <x v="40"/>
+  </r>
+  <r>
+    <d v="2011-07-16T00:00:00"/>
     <s v="Interflora"/>
-    <s v="Cash"/>
+    <x v="6"/>
     <s v="Flowers"/>
     <n v="29"/>
     <s v="A"/>
     <x v="2"/>
     <s v="IS-345"/>
-    <d v="2011-07-16T00:00:00"/>
-  </r>
-  <r>
-    <x v="38"/>
+    <x v="41"/>
+  </r>
+  <r>
+    <d v="2011-07-17T00:00:00"/>
     <s v="GF Supplies"/>
-    <s v="IN1181"/>
+    <x v="18"/>
     <s v="Consumables"/>
     <n v="937"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-325"/>
-    <d v="2011-08-16T00:00:00"/>
-  </r>
-  <r>
-    <x v="39"/>
+    <x v="42"/>
+  </r>
+  <r>
+    <d v="2011-07-20T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
-    <s v="Transfer"/>
+    <x v="8"/>
     <s v="Inter Account Transfer"/>
     <n v="-20000"/>
     <s v="E"/>
     <x v="1"/>
     <s v="BS-399"/>
+    <x v="43"/>
+  </r>
+  <r>
     <d v="2011-07-20T00:00:00"/>
-  </r>
-  <r>
-    <x v="39"/>
     <s v="Example (Pty) Ltd"/>
-    <s v="Transfer"/>
+    <x v="8"/>
     <s v="Inter Account Transfer"/>
     <n v="20000"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-399"/>
-    <d v="2011-07-20T00:00:00"/>
-  </r>
-  <r>
-    <x v="40"/>
+    <x v="43"/>
+  </r>
+  <r>
+    <d v="2011-07-25T00:00:00"/>
     <s v="ACC Institute"/>
-    <s v="M00321037"/>
+    <x v="19"/>
     <s v="Annual Membership"/>
     <n v="2000"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-375"/>
-    <d v="2011-08-24T00:00:00"/>
-  </r>
-  <r>
-    <x v="41"/>
+    <x v="44"/>
+  </r>
+  <r>
+    <d v="2011-07-26T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
-    <s v="Payroll"/>
+    <x v="9"/>
     <s v="Salaries"/>
     <n v="20000"/>
     <s v="E"/>
     <x v="1"/>
     <s v="IS-365"/>
+    <x v="45"/>
+  </r>
+  <r>
     <d v="2011-07-26T00:00:00"/>
-  </r>
-  <r>
-    <x v="41"/>
     <s v="HP Finance"/>
-    <s v="Debit Order"/>
+    <x v="3"/>
     <s v="Capital repayment"/>
     <n v="220"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-700"/>
+    <x v="45"/>
+  </r>
+  <r>
     <d v="2011-07-26T00:00:00"/>
-  </r>
-  <r>
-    <x v="41"/>
     <s v="HP Finance"/>
-    <s v="Debit Order"/>
+    <x v="3"/>
     <s v="Interest paid"/>
     <n v="100"/>
     <s v="E"/>
     <x v="0"/>
     <s v="IS-500"/>
+    <x v="45"/>
+  </r>
+  <r>
     <d v="2011-07-26T00:00:00"/>
-  </r>
-  <r>
-    <x v="41"/>
     <s v="PR Properties"/>
-    <s v="Debit Order"/>
+    <x v="3"/>
     <s v="Rent"/>
     <n v="6400"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-350"/>
-    <d v="2011-07-26T00:00:00"/>
-  </r>
-  <r>
-    <x v="42"/>
+    <x v="45"/>
+  </r>
+  <r>
+    <d v="2011-07-31T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
-    <s v="Bank Statement"/>
+    <x v="4"/>
     <s v="Petty Cash Reimbursement"/>
     <n v="50"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-399"/>
+    <x v="36"/>
+  </r>
+  <r>
     <d v="2011-07-31T00:00:00"/>
-  </r>
-  <r>
-    <x v="42"/>
     <s v="Example (Pty) Ltd"/>
-    <s v="Bank Statement"/>
+    <x v="4"/>
     <s v="Petty Cash Reimbursement"/>
     <n v="-50"/>
     <s v="E"/>
     <x v="2"/>
     <s v="BS-399"/>
-    <d v="2011-07-31T00:00:00"/>
-  </r>
-  <r>
-    <x v="43"/>
+    <x v="36"/>
+  </r>
+  <r>
+    <d v="2011-08-01T00:00:00"/>
     <s v="IS Communications"/>
-    <s v="Invoice EXP27"/>
+    <x v="20"/>
     <s v="Internet Service Provider"/>
     <n v="179"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-380"/>
-    <d v="2011-08-31T00:00:00"/>
-  </r>
-  <r>
-    <x v="44"/>
+    <x v="46"/>
+  </r>
+  <r>
+    <d v="2011-08-05T00:00:00"/>
     <s v="EAG Brokers"/>
-    <s v="Debit Order"/>
+    <x v="3"/>
     <s v="Insurance"/>
     <n v="340"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-340"/>
-    <d v="2011-08-05T00:00:00"/>
-  </r>
-  <r>
-    <x v="45"/>
+    <x v="47"/>
+  </r>
+  <r>
+    <d v="2011-08-09T00:00:00"/>
     <s v="Interflora"/>
-    <s v="Cash"/>
+    <x v="6"/>
     <s v="Flowers"/>
     <n v="78"/>
     <s v="A"/>
     <x v="2"/>
     <s v="IS-345"/>
-    <d v="2011-08-09T00:00:00"/>
-  </r>
-  <r>
-    <x v="46"/>
+    <x v="48"/>
+  </r>
+  <r>
+    <d v="2011-08-13T00:00:00"/>
     <s v="XY Traders"/>
-    <s v="Invoice 9987"/>
+    <x v="21"/>
     <s v="Commission"/>
     <n v="747"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-320"/>
-    <d v="2011-09-12T00:00:00"/>
-  </r>
-  <r>
-    <x v="47"/>
+    <x v="49"/>
+  </r>
+  <r>
+    <d v="2011-08-15T00:00:00"/>
     <s v="Capital Bank"/>
-    <s v="Bank Statement"/>
+    <x v="4"/>
     <s v="Service Fees"/>
     <n v="80"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-315"/>
+    <x v="50"/>
+  </r>
+  <r>
     <d v="2011-08-15T00:00:00"/>
-  </r>
-  <r>
-    <x v="47"/>
     <s v="Capital Bank"/>
-    <s v="Bank Statement"/>
+    <x v="4"/>
     <s v="Service Fees"/>
     <n v="35"/>
     <s v="A"/>
     <x v="1"/>
     <s v="IS-315"/>
+    <x v="50"/>
+  </r>
+  <r>
     <d v="2011-08-15T00:00:00"/>
-  </r>
-  <r>
-    <x v="47"/>
     <s v="IAS Accountants"/>
-    <s v="Invoice"/>
+    <x v="5"/>
     <s v="Bookkeeping"/>
     <n v="1000"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-305"/>
-    <d v="2011-09-02T00:00:00"/>
-  </r>
-  <r>
-    <x v="47"/>
+    <x v="51"/>
+  </r>
+  <r>
+    <d v="2011-08-15T00:00:00"/>
     <s v="SA Airlines"/>
-    <s v="SA11988"/>
+    <x v="22"/>
     <s v="Travel"/>
     <n v="1278"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-390"/>
-    <d v="2011-08-15T00:00:00"/>
-  </r>
-  <r>
-    <x v="48"/>
+    <x v="50"/>
+  </r>
+  <r>
+    <d v="2011-08-20T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
-    <s v="Transfer"/>
+    <x v="8"/>
     <s v="Inter Account Transfer"/>
     <n v="-20000"/>
     <s v="E"/>
     <x v="1"/>
     <s v="BS-399"/>
+    <x v="52"/>
+  </r>
+  <r>
     <d v="2011-08-20T00:00:00"/>
-  </r>
-  <r>
-    <x v="48"/>
     <s v="Example (Pty) Ltd"/>
-    <s v="Transfer"/>
+    <x v="8"/>
     <s v="Inter Account Transfer"/>
     <n v="20000"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-399"/>
-    <d v="2011-08-20T00:00:00"/>
-  </r>
-  <r>
-    <x v="49"/>
+    <x v="52"/>
+  </r>
+  <r>
+    <d v="2011-08-21T00:00:00"/>
     <s v="JSE Brokers"/>
-    <s v="Remittance"/>
+    <x v="23"/>
     <s v="Share investment"/>
     <n v="3750"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-200"/>
-    <d v="2011-08-21T00:00:00"/>
-  </r>
-  <r>
-    <x v="50"/>
+    <x v="53"/>
+  </r>
+  <r>
+    <d v="2011-08-25T00:00:00"/>
     <s v="Inland Revenue"/>
-    <s v="Return"/>
+    <x v="11"/>
     <s v="Sales Tax"/>
     <n v="6600"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-600"/>
-    <d v="2011-08-25T00:00:00"/>
-  </r>
-  <r>
-    <x v="51"/>
+    <x v="54"/>
+  </r>
+  <r>
+    <d v="2011-08-26T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
-    <s v="Payroll"/>
+    <x v="9"/>
     <s v="Salaries"/>
     <n v="20000"/>
     <s v="E"/>
     <x v="1"/>
     <s v="IS-365"/>
+    <x v="55"/>
+  </r>
+  <r>
     <d v="2011-08-26T00:00:00"/>
-  </r>
-  <r>
-    <x v="51"/>
     <s v="HP Finance"/>
-    <s v="Debit Order"/>
+    <x v="3"/>
     <s v="Capital repayment"/>
     <n v="220"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-700"/>
+    <x v="55"/>
+  </r>
+  <r>
     <d v="2011-08-26T00:00:00"/>
-  </r>
-  <r>
-    <x v="51"/>
     <s v="HP Finance"/>
-    <s v="Debit Order"/>
+    <x v="3"/>
     <s v="Interest paid"/>
     <n v="100"/>
     <s v="E"/>
     <x v="0"/>
     <s v="IS-500"/>
+    <x v="55"/>
+  </r>
+  <r>
     <d v="2011-08-26T00:00:00"/>
-  </r>
-  <r>
-    <x v="51"/>
     <s v="PR Properties"/>
-    <s v="Debit Order"/>
+    <x v="3"/>
     <s v="Rent"/>
     <n v="6400"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-350"/>
-    <d v="2011-08-26T00:00:00"/>
-  </r>
-  <r>
-    <x v="52"/>
+    <x v="55"/>
+  </r>
+  <r>
+    <d v="2011-08-27T00:00:00"/>
     <s v="Waltons"/>
-    <s v="Invoice"/>
+    <x v="5"/>
     <s v="Stationery"/>
     <n v="234"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-370"/>
-    <d v="2011-09-26T00:00:00"/>
-  </r>
-  <r>
-    <x v="53"/>
+    <x v="56"/>
+  </r>
+  <r>
+    <d v="2011-08-31T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
-    <s v="Bank Statement"/>
+    <x v="4"/>
     <s v="Petty Cash Reimbursement"/>
     <n v="50"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-399"/>
+    <x v="46"/>
+  </r>
+  <r>
     <d v="2011-08-31T00:00:00"/>
-  </r>
-  <r>
-    <x v="53"/>
     <s v="Example (Pty) Ltd"/>
-    <s v="Bank Statement"/>
+    <x v="4"/>
     <s v="Petty Cash Reimbursement"/>
     <n v="-50"/>
     <s v="E"/>
     <x v="2"/>
     <s v="BS-399"/>
+    <x v="46"/>
+  </r>
+  <r>
     <d v="2011-08-31T00:00:00"/>
-  </r>
-  <r>
-    <x v="53"/>
     <s v="Inland Revenue"/>
-    <s v="Return"/>
+    <x v="11"/>
     <s v="Provisional Tax"/>
     <n v="2600"/>
     <s v="E"/>
     <x v="0"/>
     <s v="IS-600"/>
-    <d v="2011-08-31T00:00:00"/>
-  </r>
-  <r>
-    <x v="54"/>
+    <x v="46"/>
+  </r>
+  <r>
+    <d v="2011-09-01T00:00:00"/>
     <s v="IS Communications"/>
-    <s v="Invoice EXP28"/>
+    <x v="24"/>
     <s v="Internet Service Provider"/>
     <n v="179"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-380"/>
-    <d v="2011-10-01T00:00:00"/>
-  </r>
-  <r>
-    <x v="55"/>
+    <x v="57"/>
+  </r>
+  <r>
+    <d v="2011-09-05T00:00:00"/>
     <s v="EAG Brokers"/>
-    <s v="Debit Order"/>
+    <x v="3"/>
     <s v="Insurance"/>
     <n v="340"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-340"/>
-    <d v="2011-09-05T00:00:00"/>
-  </r>
-  <r>
-    <x v="56"/>
+    <x v="58"/>
+  </r>
+  <r>
+    <d v="2011-09-13T00:00:00"/>
     <s v="Training Inc"/>
-    <s v="Invoice"/>
+    <x v="5"/>
     <s v="Course"/>
     <n v="277.48"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-385"/>
-    <d v="2011-10-13T00:00:00"/>
-  </r>
-  <r>
-    <x v="57"/>
+    <x v="59"/>
+  </r>
+  <r>
+    <d v="2011-09-15T00:00:00"/>
     <s v="Capital Bank"/>
-    <s v="Bank Statement"/>
+    <x v="4"/>
     <s v="Service Fees"/>
     <n v="80"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-315"/>
+    <x v="60"/>
+  </r>
+  <r>
     <d v="2011-09-15T00:00:00"/>
-  </r>
-  <r>
-    <x v="57"/>
     <s v="Capital Bank"/>
-    <s v="Bank Statement"/>
+    <x v="4"/>
     <s v="Service Fees"/>
     <n v="35"/>
     <s v="A"/>
     <x v="1"/>
     <s v="IS-315"/>
+    <x v="60"/>
+  </r>
+  <r>
     <d v="2011-09-15T00:00:00"/>
-  </r>
-  <r>
-    <x v="57"/>
     <s v="IAS Accountants"/>
-    <s v="Invoice"/>
+    <x v="5"/>
     <s v="Bookkeeping"/>
     <n v="1000"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-305"/>
-    <d v="2011-10-03T00:00:00"/>
-  </r>
-  <r>
-    <x v="58"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <d v="2011-09-18T00:00:00"/>
     <s v="Municipality"/>
-    <s v="Statement"/>
+    <x v="25"/>
     <s v="Rates"/>
     <n v="5620"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-395"/>
+    <x v="62"/>
+  </r>
+  <r>
     <d v="2011-09-18T00:00:00"/>
-  </r>
-  <r>
-    <x v="58"/>
     <s v="QA Attorneys"/>
-    <s v="Invoice"/>
+    <x v="5"/>
     <s v="Legal advice"/>
     <n v="12500"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-360"/>
-    <d v="2011-09-18T00:00:00"/>
-  </r>
-  <r>
-    <x v="59"/>
+    <x v="62"/>
+  </r>
+  <r>
+    <d v="2011-09-20T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
-    <s v="Transfer"/>
+    <x v="8"/>
     <s v="Inter Account Transfer"/>
     <n v="-20000"/>
     <s v="E"/>
     <x v="1"/>
     <s v="BS-399"/>
+    <x v="63"/>
+  </r>
+  <r>
     <d v="2011-09-20T00:00:00"/>
-  </r>
-  <r>
-    <x v="59"/>
     <s v="Example (Pty) Ltd"/>
-    <s v="Transfer"/>
+    <x v="8"/>
     <s v="Inter Account Transfer"/>
     <n v="20000"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-399"/>
-    <d v="2011-09-20T00:00:00"/>
-  </r>
-  <r>
-    <x v="60"/>
+    <x v="63"/>
+  </r>
+  <r>
+    <d v="2011-09-21T00:00:00"/>
     <s v="Interflora"/>
-    <s v="Cash"/>
+    <x v="6"/>
     <s v="Flowers"/>
     <n v="90"/>
     <s v="A"/>
     <x v="2"/>
     <s v="IS-345"/>
-    <d v="2011-09-21T00:00:00"/>
-  </r>
-  <r>
-    <x v="61"/>
+    <x v="64"/>
+  </r>
+  <r>
+    <d v="2011-09-24T00:00:00"/>
     <s v="XY Traders"/>
-    <s v="Invoice11203"/>
+    <x v="26"/>
     <s v="Commission"/>
     <n v="4242"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-320"/>
-    <d v="2011-10-24T00:00:00"/>
-  </r>
-  <r>
-    <x v="62"/>
+    <x v="65"/>
+  </r>
+  <r>
+    <d v="2011-09-26T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
-    <s v="Payroll"/>
+    <x v="9"/>
     <s v="Salaries"/>
     <n v="20000"/>
     <s v="E"/>
     <x v="1"/>
     <s v="IS-365"/>
+    <x v="56"/>
+  </r>
+  <r>
     <d v="2011-09-26T00:00:00"/>
-  </r>
-  <r>
-    <x v="62"/>
     <s v="HP Finance"/>
-    <s v="Debit Order"/>
+    <x v="3"/>
     <s v="Capital repayment"/>
     <n v="220"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-700"/>
+    <x v="56"/>
+  </r>
+  <r>
     <d v="2011-09-26T00:00:00"/>
-  </r>
-  <r>
-    <x v="62"/>
     <s v="HP Finance"/>
-    <s v="Debit Order"/>
+    <x v="3"/>
     <s v="Interest paid"/>
     <n v="100"/>
     <s v="E"/>
     <x v="0"/>
     <s v="IS-500"/>
+    <x v="56"/>
+  </r>
+  <r>
     <d v="2011-09-26T00:00:00"/>
-  </r>
-  <r>
-    <x v="62"/>
     <s v="PR Properties"/>
-    <s v="Debit Order"/>
+    <x v="3"/>
     <s v="Rent"/>
     <n v="6400"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-350"/>
-    <d v="2011-09-26T00:00:00"/>
-  </r>
-  <r>
-    <x v="63"/>
+    <x v="56"/>
+  </r>
+  <r>
+    <d v="2011-09-30T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
-    <s v="Bank Statement"/>
+    <x v="4"/>
     <s v="Petty Cash Reimbursement"/>
     <n v="100"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-399"/>
+    <x v="66"/>
+  </r>
+  <r>
     <d v="2011-09-30T00:00:00"/>
-  </r>
-  <r>
-    <x v="63"/>
     <s v="Example (Pty) Ltd"/>
-    <s v="Bank Statement"/>
+    <x v="4"/>
     <s v="Petty Cash Reimbursement"/>
     <n v="-100"/>
     <s v="E"/>
     <x v="2"/>
     <s v="BS-399"/>
-    <d v="2011-09-30T00:00:00"/>
-  </r>
-  <r>
-    <x v="64"/>
+    <x v="66"/>
+  </r>
+  <r>
+    <d v="2011-10-01T00:00:00"/>
     <s v="IS Communications"/>
-    <s v="Invoice EXP29"/>
+    <x v="27"/>
     <s v="Internet Service Provider"/>
     <n v="179"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-380"/>
-    <d v="2011-10-31T00:00:00"/>
-  </r>
-  <r>
-    <x v="65"/>
+    <x v="67"/>
+  </r>
+  <r>
+    <d v="2011-10-04T00:00:00"/>
     <s v="GF Supplies"/>
-    <s v="IN1185"/>
+    <x v="28"/>
     <s v="Consumables"/>
     <n v="62"/>
     <s v="A"/>
     <x v="2"/>
     <s v="IS-325"/>
-    <d v="2011-11-03T00:00:00"/>
-  </r>
-  <r>
-    <x v="65"/>
+    <x v="68"/>
+  </r>
+  <r>
+    <d v="2011-10-04T00:00:00"/>
     <s v="SA Airlines"/>
-    <s v="SA12741"/>
+    <x v="29"/>
     <s v="Travel"/>
     <n v="1887"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-390"/>
-    <d v="2011-10-04T00:00:00"/>
-  </r>
-  <r>
-    <x v="66"/>
+    <x v="69"/>
+  </r>
+  <r>
+    <d v="2011-10-05T00:00:00"/>
     <s v="EAG Brokers"/>
-    <s v="Debit Order"/>
+    <x v="3"/>
     <s v="Insurance"/>
     <n v="340"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-340"/>
-    <d v="2011-10-05T00:00:00"/>
-  </r>
-  <r>
-    <x v="67"/>
+    <x v="70"/>
+  </r>
+  <r>
+    <d v="2011-10-15T00:00:00"/>
     <s v="Capital Bank"/>
-    <s v="Bank Statement"/>
+    <x v="4"/>
     <s v="Service Fees"/>
     <n v="80"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-315"/>
+    <x v="71"/>
+  </r>
+  <r>
     <d v="2011-10-15T00:00:00"/>
-  </r>
-  <r>
-    <x v="67"/>
     <s v="Capital Bank"/>
-    <s v="Bank Statement"/>
+    <x v="4"/>
     <s v="Service Fees"/>
     <n v="35"/>
     <s v="A"/>
     <x v="1"/>
     <s v="IS-315"/>
+    <x v="71"/>
+  </r>
+  <r>
     <d v="2011-10-15T00:00:00"/>
-  </r>
-  <r>
-    <x v="67"/>
     <s v="IAS Accountants"/>
-    <s v="Invoice"/>
+    <x v="5"/>
     <s v="Bookkeeping"/>
     <n v="1000"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-305"/>
-    <d v="2011-11-02T00:00:00"/>
-  </r>
-  <r>
-    <x v="68"/>
+    <x v="72"/>
+  </r>
+  <r>
+    <d v="2011-10-20T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
-    <s v="Transfer"/>
+    <x v="8"/>
     <s v="Inter Account Transfer"/>
     <n v="-20000"/>
     <s v="E"/>
     <x v="1"/>
     <s v="BS-399"/>
+    <x v="73"/>
+  </r>
+  <r>
     <d v="2011-10-20T00:00:00"/>
-  </r>
-  <r>
-    <x v="68"/>
     <s v="Example (Pty) Ltd"/>
-    <s v="Transfer"/>
+    <x v="8"/>
     <s v="Inter Account Transfer"/>
     <n v="20000"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-399"/>
-    <d v="2011-10-20T00:00:00"/>
-  </r>
-  <r>
-    <x v="69"/>
+    <x v="73"/>
+  </r>
+  <r>
+    <d v="2011-10-22T00:00:00"/>
     <s v="Waltons"/>
-    <s v="Invoice"/>
+    <x v="5"/>
     <s v="Stationery"/>
     <n v="289"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-370"/>
-    <d v="2011-11-21T00:00:00"/>
-  </r>
-  <r>
-    <x v="70"/>
+    <x v="74"/>
+  </r>
+  <r>
+    <d v="2011-10-25T00:00:00"/>
     <s v="Inland Revenue"/>
-    <s v="Return"/>
+    <x v="11"/>
     <s v="Sales Tax"/>
     <n v="3300"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-600"/>
-    <d v="2011-10-25T00:00:00"/>
-  </r>
-  <r>
-    <x v="71"/>
+    <x v="75"/>
+  </r>
+  <r>
+    <d v="2011-10-26T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
-    <s v="Payroll"/>
+    <x v="9"/>
     <s v="Salaries"/>
     <n v="20000"/>
     <s v="E"/>
     <x v="1"/>
     <s v="IS-365"/>
+    <x v="76"/>
+  </r>
+  <r>
     <d v="2011-10-26T00:00:00"/>
-  </r>
-  <r>
-    <x v="71"/>
     <s v="HP Finance"/>
-    <s v="Debit Order"/>
+    <x v="3"/>
     <s v="Capital repayment"/>
     <n v="220"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-700"/>
+    <x v="76"/>
+  </r>
+  <r>
     <d v="2011-10-26T00:00:00"/>
-  </r>
-  <r>
-    <x v="71"/>
     <s v="HP Finance"/>
-    <s v="Debit Order"/>
+    <x v="3"/>
     <s v="Interest paid"/>
     <n v="100"/>
     <s v="E"/>
     <x v="0"/>
     <s v="IS-500"/>
+    <x v="76"/>
+  </r>
+  <r>
     <d v="2011-10-26T00:00:00"/>
-  </r>
-  <r>
-    <x v="71"/>
     <s v="PR Properties"/>
-    <s v="Debit Order"/>
+    <x v="3"/>
     <s v="Rent"/>
     <n v="6400"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-350"/>
-    <d v="2011-10-26T00:00:00"/>
-  </r>
-  <r>
-    <x v="72"/>
+    <x v="76"/>
+  </r>
+  <r>
+    <d v="2011-10-28T00:00:00"/>
     <s v="Interflora"/>
-    <s v="Cash"/>
+    <x v="6"/>
     <s v="Flowers"/>
     <n v="218"/>
     <s v="A"/>
     <x v="2"/>
     <s v="IS-345"/>
-    <d v="2011-10-28T00:00:00"/>
-  </r>
-  <r>
-    <x v="73"/>
+    <x v="77"/>
+  </r>
+  <r>
+    <d v="2011-10-31T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
-    <s v="Bank Statement"/>
+    <x v="4"/>
     <s v="Petty Cash Reimbursement"/>
     <n v="200"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-399"/>
+    <x v="67"/>
+  </r>
+  <r>
     <d v="2011-10-31T00:00:00"/>
-  </r>
-  <r>
-    <x v="73"/>
     <s v="Example (Pty) Ltd"/>
-    <s v="Bank Statement"/>
+    <x v="4"/>
     <s v="Petty Cash Reimbursement"/>
     <n v="-200"/>
     <s v="E"/>
     <x v="2"/>
     <s v="BS-399"/>
-    <d v="2011-10-31T00:00:00"/>
-  </r>
-  <r>
-    <x v="74"/>
+    <x v="67"/>
+  </r>
+  <r>
+    <d v="2011-11-01T00:00:00"/>
     <s v="IS Communications"/>
-    <s v="Invoice EXP30"/>
+    <x v="30"/>
     <s v="Internet Service Provider"/>
     <n v="179"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-380"/>
-    <d v="2011-12-01T00:00:00"/>
-  </r>
-  <r>
-    <x v="75"/>
+    <x v="78"/>
+  </r>
+  <r>
+    <d v="2011-11-05T00:00:00"/>
     <s v="EAG Brokers"/>
-    <s v="Debit Order"/>
+    <x v="3"/>
     <s v="Insurance"/>
     <n v="340"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-340"/>
+    <x v="79"/>
+  </r>
+  <r>
     <d v="2011-11-05T00:00:00"/>
-  </r>
-  <r>
-    <x v="75"/>
     <s v="XY Traders"/>
-    <s v="Invoice 12987"/>
+    <x v="31"/>
     <s v="Commission"/>
     <n v="982"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-320"/>
-    <d v="2011-12-05T00:00:00"/>
-  </r>
-  <r>
-    <x v="76"/>
+    <x v="80"/>
+  </r>
+  <r>
+    <d v="2011-11-15T00:00:00"/>
     <s v="Capital Bank"/>
-    <s v="Bank Statement"/>
+    <x v="4"/>
     <s v="Service Fees"/>
     <n v="80"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-315"/>
+    <x v="81"/>
+  </r>
+  <r>
     <d v="2011-11-15T00:00:00"/>
-  </r>
-  <r>
-    <x v="76"/>
     <s v="Capital Bank"/>
-    <s v="Bank Statement"/>
+    <x v="4"/>
     <s v="Service Fees"/>
     <n v="35"/>
     <s v="A"/>
     <x v="1"/>
     <s v="IS-315"/>
+    <x v="81"/>
+  </r>
+  <r>
     <d v="2011-11-15T00:00:00"/>
-  </r>
-  <r>
-    <x v="76"/>
     <s v="IAS Accountants"/>
-    <s v="Invoice"/>
+    <x v="5"/>
     <s v="Bookkeeping"/>
     <n v="1000"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-305"/>
-    <d v="2011-12-03T00:00:00"/>
-  </r>
-  <r>
-    <x v="77"/>
+    <x v="82"/>
+  </r>
+  <r>
+    <d v="2011-11-19T00:00:00"/>
     <s v="Interflora"/>
-    <s v="Cash"/>
+    <x v="6"/>
     <s v="Flowers"/>
     <n v="102"/>
     <s v="A"/>
     <x v="2"/>
     <s v="IS-345"/>
-    <d v="2011-11-19T00:00:00"/>
-  </r>
-  <r>
-    <x v="78"/>
+    <x v="83"/>
+  </r>
+  <r>
+    <d v="2011-11-20T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
-    <s v="Transfer"/>
+    <x v="8"/>
     <s v="Inter Account Transfer"/>
     <n v="-20000"/>
     <s v="E"/>
     <x v="1"/>
     <s v="BS-399"/>
+    <x v="84"/>
+  </r>
+  <r>
     <d v="2011-11-20T00:00:00"/>
-  </r>
-  <r>
-    <x v="78"/>
     <s v="Example (Pty) Ltd"/>
-    <s v="Transfer"/>
+    <x v="8"/>
     <s v="Inter Account Transfer"/>
     <n v="20000"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-399"/>
-    <d v="2011-11-20T00:00:00"/>
-  </r>
-  <r>
-    <x v="79"/>
+    <x v="84"/>
+  </r>
+  <r>
+    <d v="2011-11-26T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
-    <s v="Payroll"/>
+    <x v="9"/>
     <s v="Salaries"/>
     <n v="20000"/>
     <s v="E"/>
     <x v="1"/>
     <s v="IS-365"/>
+    <x v="85"/>
+  </r>
+  <r>
     <d v="2011-11-26T00:00:00"/>
-  </r>
-  <r>
-    <x v="79"/>
     <s v="HP Finance"/>
-    <s v="Debit Order"/>
+    <x v="3"/>
     <s v="Capital repayment"/>
     <n v="220"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-700"/>
+    <x v="85"/>
+  </r>
+  <r>
     <d v="2011-11-26T00:00:00"/>
-  </r>
-  <r>
-    <x v="79"/>
     <s v="HP Finance"/>
-    <s v="Debit Order"/>
+    <x v="3"/>
     <s v="Interest paid"/>
     <n v="100"/>
     <s v="E"/>
     <x v="0"/>
     <s v="IS-500"/>
+    <x v="85"/>
+  </r>
+  <r>
     <d v="2011-11-26T00:00:00"/>
-  </r>
-  <r>
-    <x v="79"/>
     <s v="PR Properties"/>
-    <s v="Debit Order"/>
+    <x v="3"/>
     <s v="Rent"/>
     <n v="6400"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-350"/>
-    <d v="2011-11-26T00:00:00"/>
-  </r>
-  <r>
-    <x v="80"/>
+    <x v="85"/>
+  </r>
+  <r>
+    <d v="2011-11-30T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
-    <s v="Bank Statement"/>
+    <x v="4"/>
     <s v="Petty Cash Reimbursement"/>
     <n v="170"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-399"/>
+    <x v="86"/>
+  </r>
+  <r>
     <d v="2011-11-30T00:00:00"/>
-  </r>
-  <r>
-    <x v="80"/>
     <s v="Example (Pty) Ltd"/>
-    <s v="Bank Statement"/>
+    <x v="4"/>
     <s v="Petty Cash Reimbursement"/>
     <n v="-170"/>
     <s v="E"/>
     <x v="2"/>
     <s v="BS-399"/>
-    <d v="2011-11-30T00:00:00"/>
-  </r>
-  <r>
-    <x v="81"/>
+    <x v="86"/>
+  </r>
+  <r>
+    <d v="2011-12-01T00:00:00"/>
     <s v="IS Communications"/>
-    <s v="Invoice EXP31"/>
+    <x v="32"/>
     <s v="Internet Service Provider"/>
     <n v="179"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-380"/>
-    <d v="2011-12-31T00:00:00"/>
-  </r>
-  <r>
-    <x v="82"/>
+    <x v="87"/>
+  </r>
+  <r>
+    <d v="2011-12-05T00:00:00"/>
     <s v="EAG Brokers"/>
-    <s v="Debit Order"/>
+    <x v="3"/>
     <s v="Insurance"/>
     <n v="340"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-340"/>
-    <d v="2011-12-05T00:00:00"/>
-  </r>
-  <r>
-    <x v="83"/>
+    <x v="80"/>
+  </r>
+  <r>
+    <d v="2011-12-06T00:00:00"/>
     <s v="Interflora"/>
-    <s v="Cash"/>
+    <x v="6"/>
     <s v="Flowers"/>
     <n v="96"/>
     <s v="A"/>
     <x v="2"/>
     <s v="IS-345"/>
-    <d v="2011-12-06T00:00:00"/>
-  </r>
-  <r>
-    <x v="84"/>
+    <x v="88"/>
+  </r>
+  <r>
+    <d v="2011-12-15T00:00:00"/>
     <s v="Capital Bank"/>
-    <s v="Bank Statement"/>
+    <x v="4"/>
     <s v="Service Fees"/>
     <n v="80"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-315"/>
+    <x v="89"/>
+  </r>
+  <r>
     <d v="2011-12-15T00:00:00"/>
-  </r>
-  <r>
-    <x v="84"/>
     <s v="Capital Bank"/>
-    <s v="Bank Statement"/>
+    <x v="4"/>
     <s v="Service Fees"/>
     <n v="35"/>
     <s v="A"/>
     <x v="1"/>
     <s v="IS-315"/>
+    <x v="89"/>
+  </r>
+  <r>
     <d v="2011-12-15T00:00:00"/>
-  </r>
-  <r>
-    <x v="84"/>
     <s v="IAS Accountants"/>
-    <s v="Invoice"/>
+    <x v="5"/>
     <s v="Bookkeeping"/>
     <n v="1000"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-305"/>
-    <d v="2012-01-02T00:00:00"/>
-  </r>
-  <r>
-    <x v="85"/>
+    <x v="90"/>
+  </r>
+  <r>
+    <d v="2011-12-17T00:00:00"/>
     <s v="Newscorp"/>
-    <s v="M00353051"/>
+    <x v="33"/>
     <s v="Subscriptions"/>
     <n v="120"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-375"/>
-    <d v="2012-01-16T00:00:00"/>
-  </r>
-  <r>
-    <x v="85"/>
+    <x v="91"/>
+  </r>
+  <r>
+    <d v="2011-12-17T00:00:00"/>
     <s v="Waltons"/>
-    <s v="Invoice"/>
+    <x v="5"/>
     <s v="Stationery"/>
     <n v="310"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-370"/>
-    <d v="2012-01-16T00:00:00"/>
-  </r>
-  <r>
-    <x v="85"/>
+    <x v="91"/>
+  </r>
+  <r>
+    <d v="2011-12-17T00:00:00"/>
     <s v="XY Traders"/>
-    <s v="Invoice 13432"/>
+    <x v="34"/>
     <s v="Commission"/>
     <n v="962"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-320"/>
-    <d v="2012-01-16T00:00:00"/>
-  </r>
-  <r>
-    <x v="86"/>
+    <x v="91"/>
+  </r>
+  <r>
+    <d v="2011-12-20T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
-    <s v="Transfer"/>
+    <x v="8"/>
     <s v="Inter Account Transfer"/>
     <n v="-20000"/>
     <s v="E"/>
     <x v="1"/>
     <s v="BS-399"/>
+    <x v="92"/>
+  </r>
+  <r>
     <d v="2011-12-20T00:00:00"/>
-  </r>
-  <r>
-    <x v="86"/>
     <s v="Example (Pty) Ltd"/>
-    <s v="Transfer"/>
+    <x v="8"/>
     <s v="Inter Account Transfer"/>
     <n v="20000"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-399"/>
-    <d v="2011-12-20T00:00:00"/>
-  </r>
-  <r>
-    <x v="87"/>
+    <x v="92"/>
+  </r>
+  <r>
+    <d v="2011-12-22T00:00:00"/>
     <s v="GF Supplies"/>
-    <s v="IN1192"/>
+    <x v="35"/>
     <s v="Consumables"/>
     <n v="61"/>
     <s v="A"/>
     <x v="2"/>
     <s v="IS-325"/>
-    <d v="2012-01-21T00:00:00"/>
-  </r>
-  <r>
-    <x v="88"/>
+    <x v="93"/>
+  </r>
+  <r>
+    <d v="2011-12-25T00:00:00"/>
     <s v="Inland Revenue"/>
-    <s v="Return"/>
+    <x v="11"/>
     <s v="Sales Tax"/>
     <n v="8400"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-600"/>
-    <d v="2011-12-25T00:00:00"/>
-  </r>
-  <r>
-    <x v="89"/>
+    <x v="94"/>
+  </r>
+  <r>
+    <d v="2011-12-26T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
-    <s v="Payroll"/>
+    <x v="9"/>
     <s v="Salaries"/>
     <n v="20000"/>
     <s v="E"/>
     <x v="1"/>
     <s v="IS-365"/>
+    <x v="95"/>
+  </r>
+  <r>
     <d v="2011-12-26T00:00:00"/>
-  </r>
-  <r>
-    <x v="89"/>
     <s v="HP Finance"/>
-    <s v="Debit Order"/>
+    <x v="3"/>
     <s v="Capital repayment"/>
     <n v="220"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-700"/>
+    <x v="95"/>
+  </r>
+  <r>
     <d v="2011-12-26T00:00:00"/>
-  </r>
-  <r>
-    <x v="89"/>
     <s v="HP Finance"/>
-    <s v="Debit Order"/>
+    <x v="3"/>
     <s v="Interest paid"/>
     <n v="100"/>
     <s v="E"/>
     <x v="0"/>
     <s v="IS-500"/>
+    <x v="95"/>
+  </r>
+  <r>
     <d v="2011-12-26T00:00:00"/>
-  </r>
-  <r>
-    <x v="89"/>
     <s v="PR Properties"/>
-    <s v="Debit Order"/>
+    <x v="3"/>
     <s v="Rent"/>
     <n v="6400"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-350"/>
-    <d v="2011-12-26T00:00:00"/>
-  </r>
-  <r>
-    <x v="90"/>
+    <x v="95"/>
+  </r>
+  <r>
+    <d v="2011-12-31T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
-    <s v="Bank Statement"/>
+    <x v="4"/>
     <s v="Petty Cash Reimbursement"/>
     <n v="100"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-399"/>
+    <x v="87"/>
+  </r>
+  <r>
     <d v="2011-12-31T00:00:00"/>
-  </r>
-  <r>
-    <x v="90"/>
     <s v="Example (Pty) Ltd"/>
-    <s v="Bank Statement"/>
+    <x v="4"/>
     <s v="Petty Cash Reimbursement"/>
     <n v="-100"/>
     <s v="E"/>
     <x v="2"/>
     <s v="BS-399"/>
-    <d v="2011-12-31T00:00:00"/>
-  </r>
-  <r>
-    <x v="91"/>
+    <x v="87"/>
+  </r>
+  <r>
+    <d v="2012-01-01T00:00:00"/>
     <s v="IS Communications"/>
-    <s v="Invoice EXP32"/>
+    <x v="36"/>
     <s v="Internet Service Provider"/>
     <n v="179"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-380"/>
-    <d v="2012-01-31T00:00:00"/>
-  </r>
-  <r>
-    <x v="92"/>
+    <x v="96"/>
+  </r>
+  <r>
+    <d v="2012-01-05T00:00:00"/>
     <s v="EAG Brokers"/>
-    <s v="Debit Order"/>
+    <x v="3"/>
     <s v="Insurance"/>
     <n v="340"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-340"/>
-    <d v="2012-01-05T00:00:00"/>
-  </r>
-  <r>
-    <x v="93"/>
+    <x v="97"/>
+  </r>
+  <r>
+    <d v="2012-01-15T00:00:00"/>
     <s v="Capital Bank"/>
-    <s v="Bank Statement"/>
+    <x v="4"/>
     <s v="Service Fees"/>
     <n v="80"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-315"/>
+    <x v="98"/>
+  </r>
+  <r>
     <d v="2012-01-15T00:00:00"/>
-  </r>
-  <r>
-    <x v="93"/>
     <s v="Capital Bank"/>
-    <s v="Bank Statement"/>
+    <x v="4"/>
     <s v="Service Fees"/>
     <n v="35"/>
     <s v="A"/>
     <x v="1"/>
     <s v="IS-315"/>
+    <x v="98"/>
+  </r>
+  <r>
     <d v="2012-01-15T00:00:00"/>
-  </r>
-  <r>
-    <x v="93"/>
     <s v="IAS Accountants"/>
-    <s v="Invoice"/>
+    <x v="5"/>
     <s v="Bookkeeping"/>
     <n v="1000"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-305"/>
-    <d v="2012-02-02T00:00:00"/>
-  </r>
-  <r>
-    <x v="94"/>
+    <x v="99"/>
+  </r>
+  <r>
+    <d v="2012-01-16T00:00:00"/>
     <s v="Interflora"/>
-    <s v="Cash"/>
+    <x v="6"/>
     <s v="Flowers"/>
     <n v="105"/>
     <s v="A"/>
     <x v="2"/>
     <s v="IS-345"/>
-    <d v="2012-01-16T00:00:00"/>
-  </r>
-  <r>
-    <x v="95"/>
+    <x v="91"/>
+  </r>
+  <r>
+    <d v="2012-01-20T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
-    <s v="Transfer"/>
+    <x v="8"/>
     <s v="Inter Account Transfer"/>
     <n v="-20000"/>
     <s v="E"/>
     <x v="1"/>
     <s v="BS-399"/>
+    <x v="100"/>
+  </r>
+  <r>
     <d v="2012-01-20T00:00:00"/>
-  </r>
-  <r>
-    <x v="95"/>
     <s v="Example (Pty) Ltd"/>
-    <s v="Transfer"/>
+    <x v="8"/>
     <s v="Inter Account Transfer"/>
     <n v="20000"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-399"/>
-    <d v="2012-01-20T00:00:00"/>
-  </r>
-  <r>
-    <x v="96"/>
+    <x v="100"/>
+  </r>
+  <r>
+    <d v="2012-01-26T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
-    <s v="Payroll"/>
+    <x v="9"/>
     <s v="Salaries"/>
     <n v="20000"/>
     <s v="E"/>
     <x v="1"/>
     <s v="IS-365"/>
+    <x v="101"/>
+  </r>
+  <r>
     <d v="2012-01-26T00:00:00"/>
-  </r>
-  <r>
-    <x v="96"/>
     <s v="HP Finance"/>
-    <s v="Debit Order"/>
+    <x v="3"/>
     <s v="Capital repayment"/>
     <n v="220"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-700"/>
+    <x v="101"/>
+  </r>
+  <r>
     <d v="2012-01-26T00:00:00"/>
-  </r>
-  <r>
-    <x v="96"/>
     <s v="HP Finance"/>
-    <s v="Debit Order"/>
+    <x v="3"/>
     <s v="Interest paid"/>
     <n v="100"/>
     <s v="E"/>
     <x v="0"/>
     <s v="IS-500"/>
+    <x v="101"/>
+  </r>
+  <r>
     <d v="2012-01-26T00:00:00"/>
-  </r>
-  <r>
-    <x v="96"/>
     <s v="PR Properties"/>
-    <s v="Debit Order"/>
+    <x v="3"/>
     <s v="Rent"/>
     <n v="6400"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-350"/>
+    <x v="101"/>
+  </r>
+  <r>
     <d v="2012-01-26T00:00:00"/>
-  </r>
-  <r>
-    <x v="96"/>
     <s v="Training Inc"/>
-    <s v="Invoice"/>
+    <x v="5"/>
     <s v="Training"/>
     <n v="389.25"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-385"/>
-    <d v="2012-01-31T00:00:00"/>
-  </r>
-  <r>
-    <x v="97"/>
+    <x v="96"/>
+  </r>
+  <r>
+    <d v="2012-01-28T00:00:00"/>
     <s v="XY Traders"/>
-    <s v="Invoice 14278"/>
+    <x v="37"/>
     <s v="Commission"/>
     <n v="514"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-320"/>
-    <d v="2012-02-27T00:00:00"/>
-  </r>
-  <r>
-    <x v="98"/>
+    <x v="102"/>
+  </r>
+  <r>
+    <d v="2012-01-31T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
-    <s v="Bank Statement"/>
+    <x v="4"/>
     <s v="Petty Cash Reimbursement"/>
     <n v="170"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-399"/>
+    <x v="96"/>
+  </r>
+  <r>
     <d v="2012-01-31T00:00:00"/>
-  </r>
-  <r>
-    <x v="98"/>
     <s v="Example (Pty) Ltd"/>
-    <s v="Bank Statement"/>
+    <x v="4"/>
     <s v="Petty Cash Reimbursement"/>
     <n v="-170"/>
     <s v="E"/>
     <x v="2"/>
     <s v="BS-399"/>
-    <d v="2012-01-31T00:00:00"/>
-  </r>
-  <r>
-    <x v="99"/>
+    <x v="96"/>
+  </r>
+  <r>
+    <d v="2012-02-01T00:00:00"/>
     <s v="IS Communications"/>
-    <s v="Invoice EXP33"/>
+    <x v="38"/>
     <s v="Internet Service Provider"/>
     <n v="179"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-380"/>
-    <m/>
-  </r>
-  <r>
-    <x v="100"/>
+    <x v="103"/>
+  </r>
+  <r>
+    <d v="2012-02-05T00:00:00"/>
     <s v="EAG Brokers"/>
-    <s v="Debit Order"/>
+    <x v="3"/>
     <s v="Insurance"/>
     <n v="340"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-340"/>
-    <d v="2012-02-05T00:00:00"/>
-  </r>
-  <r>
-    <x v="101"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <d v="2012-02-11T00:00:00"/>
     <s v="Waltons"/>
-    <s v="Invoice"/>
+    <x v="5"/>
     <s v="Stationery"/>
     <n v="289"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-370"/>
-    <m/>
-  </r>
-  <r>
-    <x v="102"/>
+    <x v="103"/>
+  </r>
+  <r>
+    <d v="2012-02-15T00:00:00"/>
     <s v="Capital Bank"/>
-    <s v="Bank Statement"/>
+    <x v="4"/>
     <s v="Service Fees"/>
     <n v="80"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-315"/>
+    <x v="105"/>
+  </r>
+  <r>
     <d v="2012-02-15T00:00:00"/>
-  </r>
-  <r>
-    <x v="102"/>
     <s v="Capital Bank"/>
-    <s v="Bank Statement"/>
+    <x v="4"/>
     <s v="Service Fees"/>
     <n v="35"/>
     <s v="A"/>
     <x v="1"/>
     <s v="IS-315"/>
+    <x v="105"/>
+  </r>
+  <r>
     <d v="2012-02-15T00:00:00"/>
-  </r>
-  <r>
-    <x v="102"/>
     <s v="IAS Accountants"/>
-    <s v="Invoice"/>
+    <x v="5"/>
     <s v="Bookkeeping"/>
     <n v="1000"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-305"/>
-    <m/>
-  </r>
-  <r>
     <x v="103"/>
+  </r>
+  <r>
+    <d v="2012-02-20T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
-    <s v="Transfer"/>
+    <x v="8"/>
     <s v="Inter Account Transfer"/>
     <n v="-20000"/>
     <s v="E"/>
     <x v="1"/>
     <s v="BS-399"/>
+    <x v="106"/>
+  </r>
+  <r>
     <d v="2012-02-20T00:00:00"/>
-  </r>
-  <r>
-    <x v="103"/>
     <s v="Example (Pty) Ltd"/>
-    <s v="Transfer"/>
+    <x v="8"/>
     <s v="Inter Account Transfer"/>
     <n v="20000"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-399"/>
-    <d v="2012-02-20T00:00:00"/>
-  </r>
-  <r>
-    <x v="104"/>
+    <x v="106"/>
+  </r>
+  <r>
+    <d v="2012-02-25T00:00:00"/>
     <s v="Inland Revenue"/>
-    <s v="Return"/>
+    <x v="11"/>
     <s v="Sales Tax"/>
     <n v="2200"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-600"/>
+    <x v="107"/>
+  </r>
+  <r>
     <d v="2012-02-25T00:00:00"/>
-  </r>
-  <r>
-    <x v="104"/>
     <s v="Interflora"/>
-    <s v="Cash"/>
+    <x v="6"/>
     <s v="Flowers"/>
     <n v="75"/>
     <s v="A"/>
     <x v="2"/>
     <s v="IS-345"/>
-    <d v="2012-02-25T00:00:00"/>
-  </r>
-  <r>
-    <x v="105"/>
+    <x v="107"/>
+  </r>
+  <r>
+    <d v="2012-02-26T00:00:00"/>
     <s v="DF Equipment"/>
-    <s v="Invoice"/>
+    <x v="5"/>
     <s v="Office equipment"/>
     <n v="10000"/>
     <s v="A"/>
     <x v="0"/>
     <s v="BS-100"/>
-    <m/>
-  </r>
-  <r>
-    <x v="105"/>
+    <x v="103"/>
+  </r>
+  <r>
+    <d v="2012-02-26T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
-    <s v="Payroll"/>
+    <x v="9"/>
     <s v="Salaries"/>
     <n v="20000"/>
     <s v="E"/>
     <x v="1"/>
     <s v="IS-365"/>
+    <x v="108"/>
+  </r>
+  <r>
     <d v="2012-02-26T00:00:00"/>
-  </r>
-  <r>
-    <x v="105"/>
     <s v="HP Finance"/>
-    <s v="Debit Order"/>
+    <x v="3"/>
     <s v="Capital repayment"/>
     <n v="220"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-700"/>
+    <x v="108"/>
+  </r>
+  <r>
     <d v="2012-02-26T00:00:00"/>
-  </r>
-  <r>
-    <x v="105"/>
     <s v="HP Finance"/>
-    <s v="Debit Order"/>
+    <x v="3"/>
     <s v="Interest paid"/>
     <n v="100"/>
     <s v="E"/>
     <x v="0"/>
     <s v="IS-500"/>
+    <x v="108"/>
+  </r>
+  <r>
     <d v="2012-02-26T00:00:00"/>
-  </r>
-  <r>
-    <x v="105"/>
     <s v="PR Properties"/>
-    <s v="Debit Order"/>
+    <x v="3"/>
     <s v="Rent"/>
     <n v="6400"/>
     <s v="A"/>
     <x v="0"/>
     <s v="IS-350"/>
-    <d v="2012-02-26T00:00:00"/>
-  </r>
-  <r>
-    <x v="106"/>
+    <x v="108"/>
+  </r>
+  <r>
+    <d v="2012-02-29T00:00:00"/>
     <s v="Example (Pty) Ltd"/>
-    <s v="Bank Statement"/>
+    <x v="4"/>
     <s v="Petty Cash Reimbursement"/>
     <n v="70"/>
     <s v="E"/>
     <x v="0"/>
     <s v="BS-399"/>
+    <x v="109"/>
+  </r>
+  <r>
     <d v="2012-02-29T00:00:00"/>
-  </r>
-  <r>
-    <x v="106"/>
     <s v="Example (Pty) Ltd"/>
-    <s v="Bank Statement"/>
+    <x v="4"/>
     <s v="Petty Cash Reimbursement"/>
     <n v="-70"/>
     <s v="E"/>
     <x v="2"/>
     <s v="BS-399"/>
+    <x v="109"/>
+  </r>
+  <r>
     <d v="2012-02-29T00:00:00"/>
-  </r>
-  <r>
-    <x v="106"/>
     <s v="Inland Revenue"/>
-    <s v="Return"/>
+    <x v="11"/>
     <s v="Provisional Tax"/>
     <n v="3700"/>
     <s v="E"/>
     <x v="0"/>
     <s v="IS-600"/>
-    <d v="2012-02-29T00:00:00"/>
+    <x v="109"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2617B571-4223-43B5-9B2D-AD2BBC850FBD}" name="PivotTable4" cacheId="5601" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FCFCDD25-02D0-4FD3-AE03-E6D05A8A151D}" name="PivotTable2" cacheId="499" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:E21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
-    <pivotField axis="axisRow" compact="0" numFmtId="14" outline="0" showAll="0">
-      <items count="108">
+    <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="40">
+        <item x="4"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="12"/>
+        <item x="18"/>
+        <item x="28"/>
+        <item x="35"/>
+        <item x="5"/>
+        <item x="31"/>
+        <item x="34"/>
+        <item x="37"/>
+        <item x="21"/>
+        <item x="1"/>
+        <item x="10"/>
+        <item x="13"/>
+        <item x="15"/>
+        <item x="17"/>
+        <item x="20"/>
+        <item x="24"/>
+        <item x="27"/>
+        <item x="30"/>
+        <item x="32"/>
+        <item x="36"/>
+        <item x="38"/>
+        <item x="26"/>
+        <item x="19"/>
+        <item x="33"/>
+        <item x="9"/>
+        <item x="23"/>
+        <item x="11"/>
+        <item x="14"/>
         <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
+        <item x="16"/>
+        <item x="22"/>
+        <item x="29"/>
+        <item x="25"/>
         <item x="7"/>
         <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField dataField="1" compact="0" numFmtId="43" outline="0" showAll="0"/>
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -4608,18 +4656,126 @@
       </items>
     </pivotField>
     <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="111">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="19"/>
+        <item x="9"/>
+        <item x="13"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="24"/>
+        <item x="26"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="20"/>
+        <item x="25"/>
+        <item x="28"/>
+        <item x="23"/>
+        <item x="29"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="27"/>
+        <item x="30"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="41"/>
+        <item x="43"/>
+        <item x="45"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="40"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="50"/>
+        <item x="42"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="44"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="46"/>
+        <item x="51"/>
+        <item x="58"/>
+        <item x="49"/>
+        <item x="60"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="56"/>
+        <item x="66"/>
+        <item x="57"/>
+        <item x="61"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="59"/>
+        <item x="71"/>
+        <item x="73"/>
+        <item x="65"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="67"/>
+        <item x="72"/>
+        <item x="68"/>
+        <item x="79"/>
+        <item x="81"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="74"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="78"/>
+        <item x="82"/>
+        <item x="80"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="92"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="87"/>
+        <item x="90"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="91"/>
+        <item x="100"/>
+        <item x="93"/>
+        <item x="101"/>
+        <item x="96"/>
+        <item x="99"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="102"/>
+        <item x="109"/>
+        <item x="103"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
   </pivotFields>
   <rowFields count="1">
-    <field x="0"/>
+    <field x="8"/>
   </rowFields>
   <rowItems count="17">
-    <i>
-      <x v="91"/>
-    </i>
-    <i>
-      <x v="92"/>
-    </i>
     <i>
       <x v="93"/>
     </i>
@@ -4662,6 +4818,12 @@
     <i>
       <x v="106"/>
     </i>
+    <i>
+      <x v="107"/>
+    </i>
+    <i>
+      <x v="108"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -4684,51 +4846,124 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of  5,100.00 " fld="4" baseField="0" baseItem="0" numFmtId="164"/>
+    <dataField name="Sum of Tax Inclusive Amount" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
-  <formats count="12">
+  <formats count="21">
     <format dxfId="0">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="8" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="2">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="3">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="4">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="5">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    <format dxfId="6">
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="7">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="8" count="16">
+            <x v="93"/>
+            <x v="94"/>
+            <x v="95"/>
+            <x v="96"/>
+            <x v="97"/>
+            <x v="98"/>
+            <x v="99"/>
+            <x v="100"/>
+            <x v="101"/>
+            <x v="102"/>
+            <x v="103"/>
+            <x v="104"/>
+            <x v="105"/>
+            <x v="106"/>
+            <x v="107"/>
+            <x v="108"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="8">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="11">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="12">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="13">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="14">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="15">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    <format dxfId="16">
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="17">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="8" count="16">
+            <x v="93"/>
+            <x v="94"/>
+            <x v="95"/>
+            <x v="96"/>
+            <x v="97"/>
+            <x v="98"/>
+            <x v="99"/>
+            <x v="100"/>
+            <x v="101"/>
+            <x v="102"/>
+            <x v="103"/>
+            <x v="104"/>
+            <x v="105"/>
+            <x v="106"/>
+            <x v="107"/>
+            <x v="108"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="18">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -4772,7 +5007,7 @@
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleMedium20" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <filters count="1">
-    <filter fld="0" type="dateNewerThanOrEqual" evalOrder="-1" id="1">
+    <filter fld="8" type="dateNewerThanOrEqual" evalOrder="-1" id="1">
       <autoFilter ref="A1">
         <filterColumn colId="0">
           <customFilters>
@@ -5089,287 +5324,305 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4349C548-F21F-4A8D-8F29-A195BCA4FF0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE6522FC-BEC8-4B37-BB5F-656DE71478DD}">
   <dimension ref="A3:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="A3:E21"/>
+      <selection activeCell="D3" sqref="A3:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="26" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="37" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5">
-      <c r="A3" s="20" t="s">
+    <row r="3" spans="1:5" ht="30.75">
+      <c r="A3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="20">
+        <v>40910</v>
+      </c>
+      <c r="B5" s="21">
+        <v>1000</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="20">
+        <v>40913</v>
+      </c>
+      <c r="B6" s="21">
+        <v>340</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="20">
+        <v>40923</v>
+      </c>
+      <c r="B7" s="21">
+        <v>80</v>
+      </c>
+      <c r="C7" s="21">
+        <v>35</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="20">
+        <v>40924</v>
+      </c>
+      <c r="B8" s="21">
+        <v>1392</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21">
+        <v>105</v>
+      </c>
+      <c r="E8" s="21">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="20">
+        <v>40928</v>
+      </c>
+      <c r="B9" s="21">
+        <v>20000</v>
+      </c>
+      <c r="C9" s="21">
+        <v>-20000</v>
+      </c>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="20">
+        <v>40929</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21">
+        <v>61</v>
+      </c>
+      <c r="E10" s="21">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="20">
+        <v>40934</v>
+      </c>
+      <c r="B11" s="21">
+        <v>6720</v>
+      </c>
+      <c r="C11" s="21">
+        <v>20000</v>
+      </c>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21">
+        <v>26720</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="20">
+        <v>40939</v>
+      </c>
+      <c r="B12" s="21">
+        <v>738.25</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21">
+        <v>-170</v>
+      </c>
+      <c r="E12" s="21">
+        <v>568.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="20">
+        <v>40941</v>
+      </c>
+      <c r="B13" s="21">
+        <v>1000</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="20">
+        <v>40944</v>
+      </c>
+      <c r="B14" s="21">
+        <v>340</v>
+      </c>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="20">
+        <v>40954</v>
+      </c>
+      <c r="B15" s="21">
+        <v>80</v>
+      </c>
+      <c r="C15" s="21">
+        <v>35</v>
+      </c>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="20">
+        <v>40959</v>
+      </c>
+      <c r="B16" s="21">
+        <v>20000</v>
+      </c>
+      <c r="C16" s="21">
+        <v>-20000</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="20">
+        <v>40964</v>
+      </c>
+      <c r="B17" s="21">
+        <v>2200</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21">
+        <v>75</v>
+      </c>
+      <c r="E17" s="21">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="20">
+        <v>40965</v>
+      </c>
+      <c r="B18" s="21">
+        <v>6720</v>
+      </c>
+      <c r="C18" s="21">
+        <v>20000</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21">
+        <v>26720</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="20">
+        <v>40966</v>
+      </c>
+      <c r="B19" s="21">
+        <v>514</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="20">
+        <v>40968</v>
+      </c>
+      <c r="B20" s="21">
+        <v>3770</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21">
+        <v>-70</v>
+      </c>
+      <c r="E20" s="21">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="22">
+        <v>64894.25</v>
+      </c>
+      <c r="C21" s="22">
+        <v>70</v>
+      </c>
+      <c r="D21" s="22">
         <v>1</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="18">
-        <v>40909</v>
-      </c>
-      <c r="B5" s="19">
-        <v>179</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="18">
-        <v>40913</v>
-      </c>
-      <c r="B6" s="19">
-        <v>340</v>
-      </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="18">
-        <v>40923</v>
-      </c>
-      <c r="B7" s="19">
-        <v>1080</v>
-      </c>
-      <c r="C7" s="19">
-        <v>35</v>
-      </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="18">
-        <v>40924</v>
-      </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19">
-        <v>105</v>
-      </c>
-      <c r="E8" s="19">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="18">
-        <v>40928</v>
-      </c>
-      <c r="B9" s="19">
-        <v>20000</v>
-      </c>
-      <c r="C9" s="19">
-        <v>-20000</v>
-      </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="18">
-        <v>40934</v>
-      </c>
-      <c r="B10" s="19">
-        <v>7109.25</v>
-      </c>
-      <c r="C10" s="19">
-        <v>20000</v>
-      </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19">
-        <v>27109.25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="18">
-        <v>40936</v>
-      </c>
-      <c r="B11" s="19">
-        <v>514</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="18">
-        <v>40939</v>
-      </c>
-      <c r="B12" s="19">
-        <v>170</v>
-      </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19">
-        <v>-170</v>
-      </c>
-      <c r="E12" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="18">
-        <v>40940</v>
-      </c>
-      <c r="B13" s="19">
-        <v>179</v>
-      </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="18">
-        <v>40944</v>
-      </c>
-      <c r="B14" s="19">
-        <v>340</v>
-      </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="18">
-        <v>40950</v>
-      </c>
-      <c r="B15" s="19">
-        <v>289</v>
-      </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="18">
-        <v>40954</v>
-      </c>
-      <c r="B16" s="19">
-        <v>1080</v>
-      </c>
-      <c r="C16" s="19">
-        <v>35</v>
-      </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="18">
-        <v>40959</v>
-      </c>
-      <c r="B17" s="19">
-        <v>20000</v>
-      </c>
-      <c r="C17" s="19">
-        <v>-20000</v>
-      </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="18">
-        <v>40964</v>
-      </c>
-      <c r="B18" s="19">
-        <v>2200</v>
-      </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19">
-        <v>75</v>
-      </c>
-      <c r="E18" s="19">
-        <v>2275</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="18">
-        <v>40965</v>
-      </c>
-      <c r="B19" s="19">
-        <v>16720</v>
-      </c>
-      <c r="C19" s="19">
-        <v>20000</v>
-      </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19">
-        <v>36720</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="18">
-        <v>40968</v>
-      </c>
-      <c r="B20" s="19">
-        <v>3770</v>
-      </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19">
-        <v>-70</v>
-      </c>
-      <c r="E20" s="19">
-        <v>3700</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="19">
-        <v>73970.25</v>
-      </c>
-      <c r="C21" s="19">
-        <v>70</v>
-      </c>
-      <c r="D21" s="19">
-        <v>-60</v>
-      </c>
-      <c r="E21" s="19">
-        <v>73980.25</v>
+      <c r="E21" s="22">
+        <v>64965.25</v>
       </c>
     </row>
   </sheetData>
@@ -5382,7 +5635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I210"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:I210"/>
     </sheetView>
   </sheetViews>
@@ -5393,7 +5646,7 @@
     <col min="3" max="3" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="4" customWidth="1"/>
     <col min="7" max="7" width="6.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" style="4" customWidth="1"/>
     <col min="9" max="9" width="12.5703125" style="17" bestFit="1" customWidth="1"/>
@@ -5402,36 +5655,38 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E1" s="3"/>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:9" s="14" customFormat="1" ht="61.5">
+    <row r="2" spans="1:9" s="14" customFormat="1" ht="107.25">
       <c r="A2" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="G2" s="8" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1">
@@ -5454,7 +5709,7 @@
         <v>18</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>19</v>
@@ -5483,7 +5738,7 @@
         <v>18</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>23</v>
@@ -5512,7 +5767,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>27</v>
@@ -5541,7 +5796,7 @@
         <v>18</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>31</v>
@@ -5570,7 +5825,7 @@
         <v>18</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>35</v>
@@ -5599,7 +5854,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>35</v>
@@ -5628,7 +5883,7 @@
         <v>18</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>39</v>
@@ -5657,7 +5912,7 @@
         <v>18</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>43</v>
@@ -5686,7 +5941,7 @@
         <v>18</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>47</v>
@@ -5715,7 +5970,7 @@
         <v>51</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H12" s="12" t="s">
         <v>52</v>
@@ -5744,7 +5999,7 @@
         <v>51</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H13" s="12" t="s">
         <v>52</v>
@@ -5773,7 +6028,7 @@
         <v>51</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H14" s="12" t="s">
         <v>55</v>
@@ -5802,7 +6057,7 @@
         <v>51</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>58</v>
@@ -5831,7 +6086,7 @@
         <v>51</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>60</v>
@@ -5860,7 +6115,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H17" s="12" t="s">
         <v>63</v>
@@ -5889,7 +6144,7 @@
         <v>51</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>52</v>
@@ -5918,7 +6173,7 @@
         <v>51</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H19" s="12" t="s">
         <v>52</v>
@@ -5947,7 +6202,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H20" s="12" t="s">
         <v>23</v>
@@ -5976,7 +6231,7 @@
         <v>18</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H21" s="12" t="s">
         <v>31</v>
@@ -6005,7 +6260,7 @@
         <v>18</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H22" s="12" t="s">
         <v>43</v>
@@ -6034,7 +6289,7 @@
         <v>18</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H23" s="12" t="s">
         <v>35</v>
@@ -6063,7 +6318,7 @@
         <v>18</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H24" s="12" t="s">
         <v>35</v>
@@ -6092,7 +6347,7 @@
         <v>18</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H25" s="12" t="s">
         <v>39</v>
@@ -6121,7 +6376,7 @@
         <v>51</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H26" s="12" t="s">
         <v>52</v>
@@ -6150,7 +6405,7 @@
         <v>51</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H27" s="12" t="s">
         <v>52</v>
@@ -6179,7 +6434,7 @@
         <v>51</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H28" s="12" t="s">
         <v>69</v>
@@ -6208,7 +6463,7 @@
         <v>51</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H29" s="12" t="s">
         <v>55</v>
@@ -6237,7 +6492,7 @@
         <v>18</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H30" s="12" t="s">
         <v>72</v>
@@ -6266,7 +6521,7 @@
         <v>51</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H31" s="12" t="s">
         <v>58</v>
@@ -6295,7 +6550,7 @@
         <v>51</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H32" s="12" t="s">
         <v>60</v>
@@ -6324,7 +6579,7 @@
         <v>18</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H33" s="12" t="s">
         <v>63</v>
@@ -6353,7 +6608,7 @@
         <v>18</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H34" s="12" t="s">
         <v>76</v>
@@ -6382,7 +6637,7 @@
         <v>51</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H35" s="12" t="s">
         <v>52</v>
@@ -6411,7 +6666,7 @@
         <v>51</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H36" s="12" t="s">
         <v>52</v>
@@ -6440,7 +6695,7 @@
         <v>18</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H37" s="12" t="s">
         <v>23</v>
@@ -6469,7 +6724,7 @@
         <v>18</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H38" s="12" t="s">
         <v>80</v>
@@ -6498,7 +6753,7 @@
         <v>18</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H39" s="12" t="s">
         <v>31</v>
@@ -6527,7 +6782,7 @@
         <v>18</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H40" s="12" t="s">
         <v>47</v>
@@ -6556,7 +6811,7 @@
         <v>18</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H41" s="12" t="s">
         <v>86</v>
@@ -6585,7 +6840,7 @@
         <v>18</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H42" s="12" t="s">
         <v>35</v>
@@ -6614,7 +6869,7 @@
         <v>18</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H43" s="12" t="s">
         <v>35</v>
@@ -6643,7 +6898,7 @@
         <v>18</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H44" s="12" t="s">
         <v>39</v>
@@ -6672,7 +6927,7 @@
         <v>51</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H45" s="12" t="s">
         <v>52</v>
@@ -6701,7 +6956,7 @@
         <v>51</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H46" s="12" t="s">
         <v>52</v>
@@ -6730,7 +6985,7 @@
         <v>51</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H47" s="12" t="s">
         <v>55</v>
@@ -6759,7 +7014,7 @@
         <v>51</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H48" s="12" t="s">
         <v>58</v>
@@ -6788,7 +7043,7 @@
         <v>51</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H49" s="12" t="s">
         <v>60</v>
@@ -6817,7 +7072,7 @@
         <v>18</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H50" s="12" t="s">
         <v>63</v>
@@ -6846,7 +7101,7 @@
         <v>18</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H51" s="12" t="s">
         <v>43</v>
@@ -6875,7 +7130,7 @@
         <v>51</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H52" s="12" t="s">
         <v>52</v>
@@ -6904,7 +7159,7 @@
         <v>51</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H53" s="12" t="s">
         <v>52</v>
@@ -6933,7 +7188,7 @@
         <v>18</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H54" s="12" t="s">
         <v>23</v>
@@ -6962,7 +7217,7 @@
         <v>18</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H55" s="12" t="s">
         <v>31</v>
@@ -6991,7 +7246,7 @@
         <v>18</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H56" s="12" t="s">
         <v>35</v>
@@ -7020,7 +7275,7 @@
         <v>18</v>
       </c>
       <c r="G57" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H57" s="12" t="s">
         <v>35</v>
@@ -7049,7 +7304,7 @@
         <v>18</v>
       </c>
       <c r="G58" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H58" s="12" t="s">
         <v>39</v>
@@ -7078,7 +7333,7 @@
         <v>51</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H59" s="12" t="s">
         <v>52</v>
@@ -7107,7 +7362,7 @@
         <v>51</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H60" s="12" t="s">
         <v>52</v>
@@ -7136,7 +7391,7 @@
         <v>18</v>
       </c>
       <c r="G61" s="12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H61" s="12" t="s">
         <v>43</v>
@@ -7165,7 +7420,7 @@
         <v>51</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H62" s="12" t="s">
         <v>69</v>
@@ -7194,7 +7449,7 @@
         <v>51</v>
       </c>
       <c r="G63" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H63" s="12" t="s">
         <v>55</v>
@@ -7223,7 +7478,7 @@
         <v>51</v>
       </c>
       <c r="G64" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H64" s="12" t="s">
         <v>58</v>
@@ -7252,7 +7507,7 @@
         <v>51</v>
       </c>
       <c r="G65" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H65" s="12" t="s">
         <v>60</v>
@@ -7281,7 +7536,7 @@
         <v>18</v>
       </c>
       <c r="G66" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H66" s="12" t="s">
         <v>63</v>
@@ -7310,7 +7565,7 @@
         <v>18</v>
       </c>
       <c r="G67" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H67" s="12" t="s">
         <v>47</v>
@@ -7339,7 +7594,7 @@
         <v>51</v>
       </c>
       <c r="G68" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H68" s="12" t="s">
         <v>52</v>
@@ -7368,7 +7623,7 @@
         <v>51</v>
       </c>
       <c r="G69" s="12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H69" s="12" t="s">
         <v>52</v>
@@ -7397,7 +7652,7 @@
         <v>18</v>
       </c>
       <c r="G70" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H70" s="12" t="s">
         <v>23</v>
@@ -7426,7 +7681,7 @@
         <v>18</v>
       </c>
       <c r="G71" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H71" s="12" t="s">
         <v>86</v>
@@ -7455,7 +7710,7 @@
         <v>18</v>
       </c>
       <c r="G72" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H72" s="12" t="s">
         <v>31</v>
@@ -7484,7 +7739,7 @@
         <v>18</v>
       </c>
       <c r="G73" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H73" s="12" t="s">
         <v>35</v>
@@ -7513,7 +7768,7 @@
         <v>18</v>
       </c>
       <c r="G74" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H74" s="12" t="s">
         <v>35</v>
@@ -7542,7 +7797,7 @@
         <v>18</v>
       </c>
       <c r="G75" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H75" s="12" t="s">
         <v>39</v>
@@ -7571,7 +7826,7 @@
         <v>18</v>
       </c>
       <c r="G76" s="12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H76" s="12" t="s">
         <v>43</v>
@@ -7600,7 +7855,7 @@
         <v>18</v>
       </c>
       <c r="G77" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H77" s="12" t="s">
         <v>76</v>
@@ -7629,7 +7884,7 @@
         <v>51</v>
       </c>
       <c r="G78" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H78" s="12" t="s">
         <v>52</v>
@@ -7658,7 +7913,7 @@
         <v>51</v>
       </c>
       <c r="G79" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H79" s="12" t="s">
         <v>52</v>
@@ -7687,7 +7942,7 @@
         <v>18</v>
       </c>
       <c r="G80" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H80" s="12" t="s">
         <v>27</v>
@@ -7716,7 +7971,7 @@
         <v>51</v>
       </c>
       <c r="G81" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H81" s="12" t="s">
         <v>55</v>
@@ -7745,7 +8000,7 @@
         <v>51</v>
       </c>
       <c r="G82" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H82" s="12" t="s">
         <v>58</v>
@@ -7774,7 +8029,7 @@
         <v>51</v>
       </c>
       <c r="G83" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H83" s="12" t="s">
         <v>60</v>
@@ -7803,7 +8058,7 @@
         <v>18</v>
       </c>
       <c r="G84" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H84" s="12" t="s">
         <v>63</v>
@@ -7832,7 +8087,7 @@
         <v>51</v>
       </c>
       <c r="G85" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H85" s="12" t="s">
         <v>52</v>
@@ -7861,7 +8116,7 @@
         <v>51</v>
       </c>
       <c r="G86" s="12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H86" s="12" t="s">
         <v>52</v>
@@ -7890,7 +8145,7 @@
         <v>18</v>
       </c>
       <c r="G87" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H87" s="12" t="s">
         <v>23</v>
@@ -7919,7 +8174,7 @@
         <v>18</v>
       </c>
       <c r="G88" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H88" s="12" t="s">
         <v>31</v>
@@ -7948,7 +8203,7 @@
         <v>18</v>
       </c>
       <c r="G89" s="12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H89" s="12" t="s">
         <v>43</v>
@@ -7977,7 +8232,7 @@
         <v>18</v>
       </c>
       <c r="G90" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H90" s="12" t="s">
         <v>100</v>
@@ -8006,7 +8261,7 @@
         <v>18</v>
       </c>
       <c r="G91" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H91" s="12" t="s">
         <v>35</v>
@@ -8035,7 +8290,7 @@
         <v>18</v>
       </c>
       <c r="G92" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H92" s="12" t="s">
         <v>35</v>
@@ -8064,7 +8319,7 @@
         <v>18</v>
       </c>
       <c r="G93" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H93" s="12" t="s">
         <v>39</v>
@@ -8093,7 +8348,7 @@
         <v>18</v>
       </c>
       <c r="G94" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H94" s="12" t="s">
         <v>47</v>
@@ -8122,7 +8377,7 @@
         <v>51</v>
       </c>
       <c r="G95" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H95" s="12" t="s">
         <v>52</v>
@@ -8151,7 +8406,7 @@
         <v>51</v>
       </c>
       <c r="G96" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H96" s="12" t="s">
         <v>52</v>
@@ -8180,7 +8435,7 @@
         <v>51</v>
       </c>
       <c r="G97" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H97" s="12" t="s">
         <v>105</v>
@@ -8209,7 +8464,7 @@
         <v>51</v>
       </c>
       <c r="G98" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H98" s="12" t="s">
         <v>69</v>
@@ -8238,7 +8493,7 @@
         <v>51</v>
       </c>
       <c r="G99" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H99" s="12" t="s">
         <v>55</v>
@@ -8267,7 +8522,7 @@
         <v>51</v>
       </c>
       <c r="G100" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H100" s="12" t="s">
         <v>58</v>
@@ -8296,7 +8551,7 @@
         <v>51</v>
       </c>
       <c r="G101" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H101" s="12" t="s">
         <v>60</v>
@@ -8325,7 +8580,7 @@
         <v>18</v>
       </c>
       <c r="G102" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H102" s="12" t="s">
         <v>63</v>
@@ -8354,7 +8609,7 @@
         <v>18</v>
       </c>
       <c r="G103" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H103" s="12" t="s">
         <v>86</v>
@@ -8383,7 +8638,7 @@
         <v>51</v>
       </c>
       <c r="G104" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H104" s="12" t="s">
         <v>52</v>
@@ -8412,7 +8667,7 @@
         <v>51</v>
       </c>
       <c r="G105" s="12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H105" s="12" t="s">
         <v>52</v>
@@ -8441,7 +8696,7 @@
         <v>51</v>
       </c>
       <c r="G106" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H106" s="12" t="s">
         <v>107</v>
@@ -8470,7 +8725,7 @@
         <v>18</v>
       </c>
       <c r="G107" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H107" s="12" t="s">
         <v>23</v>
@@ -8499,7 +8754,7 @@
         <v>18</v>
       </c>
       <c r="G108" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H108" s="12" t="s">
         <v>31</v>
@@ -8528,7 +8783,7 @@
         <v>18</v>
       </c>
       <c r="G109" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H109" s="12" t="s">
         <v>80</v>
@@ -8557,7 +8812,7 @@
         <v>18</v>
       </c>
       <c r="G110" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H110" s="12" t="s">
         <v>35</v>
@@ -8586,7 +8841,7 @@
         <v>18</v>
       </c>
       <c r="G111" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H111" s="12" t="s">
         <v>35</v>
@@ -8615,7 +8870,7 @@
         <v>18</v>
       </c>
       <c r="G112" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H112" s="12" t="s">
         <v>39</v>
@@ -8644,7 +8899,7 @@
         <v>18</v>
       </c>
       <c r="G113" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H113" s="12" t="s">
         <v>112</v>
@@ -8673,7 +8928,7 @@
         <v>18</v>
       </c>
       <c r="G114" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H114" s="12" t="s">
         <v>115</v>
@@ -8702,7 +8957,7 @@
         <v>51</v>
       </c>
       <c r="G115" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H115" s="12" t="s">
         <v>52</v>
@@ -8731,7 +8986,7 @@
         <v>51</v>
       </c>
       <c r="G116" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H116" s="12" t="s">
         <v>52</v>
@@ -8760,7 +9015,7 @@
         <v>18</v>
       </c>
       <c r="G117" s="12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H117" s="12" t="s">
         <v>43</v>
@@ -8789,7 +9044,7 @@
         <v>18</v>
       </c>
       <c r="G118" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H118" s="12" t="s">
         <v>100</v>
@@ -8818,7 +9073,7 @@
         <v>51</v>
       </c>
       <c r="G119" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H119" s="12" t="s">
         <v>55</v>
@@ -8847,7 +9102,7 @@
         <v>51</v>
       </c>
       <c r="G120" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H120" s="12" t="s">
         <v>58</v>
@@ -8876,7 +9131,7 @@
         <v>51</v>
       </c>
       <c r="G121" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H121" s="12" t="s">
         <v>60</v>
@@ -8905,7 +9160,7 @@
         <v>18</v>
       </c>
       <c r="G122" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H122" s="12" t="s">
         <v>63</v>
@@ -8934,7 +9189,7 @@
         <v>51</v>
       </c>
       <c r="G123" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H123" s="12" t="s">
         <v>52</v>
@@ -8963,7 +9218,7 @@
         <v>51</v>
       </c>
       <c r="G124" s="12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H124" s="12" t="s">
         <v>52</v>
@@ -8992,7 +9247,7 @@
         <v>18</v>
       </c>
       <c r="G125" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H125" s="12" t="s">
         <v>23</v>
@@ -9021,7 +9276,7 @@
         <v>18</v>
       </c>
       <c r="G126" s="12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H126" s="12" t="s">
         <v>76</v>
@@ -9050,7 +9305,7 @@
         <v>18</v>
       </c>
       <c r="G127" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H127" s="12" t="s">
         <v>47</v>
@@ -9079,7 +9334,7 @@
         <v>18</v>
       </c>
       <c r="G128" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H128" s="12" t="s">
         <v>31</v>
@@ -9108,7 +9363,7 @@
         <v>18</v>
       </c>
       <c r="G129" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H129" s="12" t="s">
         <v>35</v>
@@ -9137,7 +9392,7 @@
         <v>18</v>
       </c>
       <c r="G130" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H130" s="12" t="s">
         <v>35</v>
@@ -9166,7 +9421,7 @@
         <v>18</v>
       </c>
       <c r="G131" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H131" s="12" t="s">
         <v>39</v>
@@ -9195,7 +9450,7 @@
         <v>51</v>
       </c>
       <c r="G132" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H132" s="12" t="s">
         <v>52</v>
@@ -9224,7 +9479,7 @@
         <v>51</v>
       </c>
       <c r="G133" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H133" s="12" t="s">
         <v>52</v>
@@ -9253,7 +9508,7 @@
         <v>18</v>
       </c>
       <c r="G134" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H134" s="12" t="s">
         <v>86</v>
@@ -9282,7 +9537,7 @@
         <v>51</v>
       </c>
       <c r="G135" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H135" s="12" t="s">
         <v>69</v>
@@ -9311,7 +9566,7 @@
         <v>51</v>
       </c>
       <c r="G136" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H136" s="12" t="s">
         <v>55</v>
@@ -9340,7 +9595,7 @@
         <v>51</v>
       </c>
       <c r="G137" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H137" s="12" t="s">
         <v>58</v>
@@ -9369,7 +9624,7 @@
         <v>51</v>
       </c>
       <c r="G138" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H138" s="12" t="s">
         <v>60</v>
@@ -9398,7 +9653,7 @@
         <v>18</v>
       </c>
       <c r="G139" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H139" s="12" t="s">
         <v>63</v>
@@ -9427,7 +9682,7 @@
         <v>18</v>
       </c>
       <c r="G140" s="12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H140" s="12" t="s">
         <v>43</v>
@@ -9456,7 +9711,7 @@
         <v>51</v>
       </c>
       <c r="G141" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H141" s="12" t="s">
         <v>52</v>
@@ -9485,7 +9740,7 @@
         <v>51</v>
       </c>
       <c r="G142" s="12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H142" s="12" t="s">
         <v>52</v>
@@ -9514,7 +9769,7 @@
         <v>18</v>
       </c>
       <c r="G143" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H143" s="12" t="s">
         <v>23</v>
@@ -9543,7 +9798,7 @@
         <v>18</v>
       </c>
       <c r="G144" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H144" s="12" t="s">
         <v>31</v>
@@ -9572,7 +9827,7 @@
         <v>18</v>
       </c>
       <c r="G145" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H145" s="12" t="s">
         <v>100</v>
@@ -9601,7 +9856,7 @@
         <v>18</v>
       </c>
       <c r="G146" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H146" s="12" t="s">
         <v>35</v>
@@ -9630,7 +9885,7 @@
         <v>18</v>
       </c>
       <c r="G147" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H147" s="12" t="s">
         <v>35</v>
@@ -9659,7 +9914,7 @@
         <v>18</v>
       </c>
       <c r="G148" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H148" s="12" t="s">
         <v>39</v>
@@ -9688,7 +9943,7 @@
         <v>18</v>
       </c>
       <c r="G149" s="12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H149" s="12" t="s">
         <v>43</v>
@@ -9717,7 +9972,7 @@
         <v>51</v>
       </c>
       <c r="G150" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H150" s="12" t="s">
         <v>52</v>
@@ -9746,7 +10001,7 @@
         <v>51</v>
       </c>
       <c r="G151" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H151" s="12" t="s">
         <v>52</v>
@@ -9775,7 +10030,7 @@
         <v>51</v>
       </c>
       <c r="G152" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H152" s="12" t="s">
         <v>55</v>
@@ -9804,7 +10059,7 @@
         <v>51</v>
       </c>
       <c r="G153" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H153" s="12" t="s">
         <v>58</v>
@@ -9833,7 +10088,7 @@
         <v>51</v>
       </c>
       <c r="G154" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H154" s="12" t="s">
         <v>60</v>
@@ -9862,7 +10117,7 @@
         <v>18</v>
       </c>
       <c r="G155" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H155" s="12" t="s">
         <v>63</v>
@@ -9891,7 +10146,7 @@
         <v>51</v>
       </c>
       <c r="G156" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H156" s="12" t="s">
         <v>52</v>
@@ -9920,7 +10175,7 @@
         <v>51</v>
       </c>
       <c r="G157" s="12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H157" s="12" t="s">
         <v>52</v>
@@ -9949,7 +10204,7 @@
         <v>18</v>
       </c>
       <c r="G158" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H158" s="12" t="s">
         <v>23</v>
@@ -9978,7 +10233,7 @@
         <v>18</v>
       </c>
       <c r="G159" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H159" s="12" t="s">
         <v>31</v>
@@ -10007,7 +10262,7 @@
         <v>18</v>
       </c>
       <c r="G160" s="12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H160" s="12" t="s">
         <v>43</v>
@@ -10036,7 +10291,7 @@
         <v>18</v>
       </c>
       <c r="G161" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H161" s="12" t="s">
         <v>35</v>
@@ -10065,7 +10320,7 @@
         <v>18</v>
       </c>
       <c r="G162" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H162" s="12" t="s">
         <v>35</v>
@@ -10094,7 +10349,7 @@
         <v>18</v>
       </c>
       <c r="G163" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H163" s="12" t="s">
         <v>39</v>
@@ -10123,7 +10378,7 @@
         <v>18</v>
       </c>
       <c r="G164" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H164" s="12" t="s">
         <v>27</v>
@@ -10152,7 +10407,7 @@
         <v>18</v>
       </c>
       <c r="G165" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H165" s="12" t="s">
         <v>86</v>
@@ -10181,7 +10436,7 @@
         <v>18</v>
       </c>
       <c r="G166" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H166" s="12" t="s">
         <v>100</v>
@@ -10210,7 +10465,7 @@
         <v>51</v>
       </c>
       <c r="G167" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H167" s="12" t="s">
         <v>52</v>
@@ -10239,7 +10494,7 @@
         <v>51</v>
       </c>
       <c r="G168" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H168" s="12" t="s">
         <v>52</v>
@@ -10268,7 +10523,7 @@
         <v>18</v>
       </c>
       <c r="G169" s="12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H169" s="12" t="s">
         <v>76</v>
@@ -10297,7 +10552,7 @@
         <v>51</v>
       </c>
       <c r="G170" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H170" s="12" t="s">
         <v>69</v>
@@ -10326,7 +10581,7 @@
         <v>51</v>
       </c>
       <c r="G171" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H171" s="12" t="s">
         <v>55</v>
@@ -10355,7 +10610,7 @@
         <v>51</v>
       </c>
       <c r="G172" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H172" s="12" t="s">
         <v>58</v>
@@ -10384,7 +10639,7 @@
         <v>51</v>
       </c>
       <c r="G173" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H173" s="12" t="s">
         <v>60</v>
@@ -10413,7 +10668,7 @@
         <v>18</v>
       </c>
       <c r="G174" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H174" s="12" t="s">
         <v>63</v>
@@ -10442,7 +10697,7 @@
         <v>51</v>
       </c>
       <c r="G175" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H175" s="12" t="s">
         <v>52</v>
@@ -10471,7 +10726,7 @@
         <v>51</v>
       </c>
       <c r="G176" s="12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H176" s="12" t="s">
         <v>52</v>
@@ -10500,7 +10755,7 @@
         <v>18</v>
       </c>
       <c r="G177" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H177" s="12" t="s">
         <v>23</v>
@@ -10529,7 +10784,7 @@
         <v>18</v>
       </c>
       <c r="G178" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H178" s="12" t="s">
         <v>31</v>
@@ -10558,7 +10813,7 @@
         <v>18</v>
       </c>
       <c r="G179" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H179" s="12" t="s">
         <v>35</v>
@@ -10587,7 +10842,7 @@
         <v>18</v>
       </c>
       <c r="G180" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H180" s="12" t="s">
         <v>35</v>
@@ -10616,7 +10871,7 @@
         <v>18</v>
       </c>
       <c r="G181" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H181" s="12" t="s">
         <v>39</v>
@@ -10645,7 +10900,7 @@
         <v>18</v>
       </c>
       <c r="G182" s="12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H182" s="12" t="s">
         <v>43</v>
@@ -10674,7 +10929,7 @@
         <v>51</v>
       </c>
       <c r="G183" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H183" s="12" t="s">
         <v>52</v>
@@ -10703,7 +10958,7 @@
         <v>51</v>
       </c>
       <c r="G184" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H184" s="12" t="s">
         <v>52</v>
@@ -10732,7 +10987,7 @@
         <v>51</v>
       </c>
       <c r="G185" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H185" s="12" t="s">
         <v>55</v>
@@ -10761,7 +11016,7 @@
         <v>51</v>
       </c>
       <c r="G186" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H186" s="12" t="s">
         <v>58</v>
@@ -10790,7 +11045,7 @@
         <v>51</v>
       </c>
       <c r="G187" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H187" s="12" t="s">
         <v>60</v>
@@ -10819,7 +11074,7 @@
         <v>18</v>
       </c>
       <c r="G188" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H188" s="12" t="s">
         <v>63</v>
@@ -10848,7 +11103,7 @@
         <v>18</v>
       </c>
       <c r="G189" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H189" s="12" t="s">
         <v>80</v>
@@ -10877,7 +11132,7 @@
         <v>18</v>
       </c>
       <c r="G190" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H190" s="12" t="s">
         <v>100</v>
@@ -10906,7 +11161,7 @@
         <v>51</v>
       </c>
       <c r="G191" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H191" s="12" t="s">
         <v>52</v>
@@ -10935,7 +11190,7 @@
         <v>51</v>
       </c>
       <c r="G192" s="12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H192" s="12" t="s">
         <v>52</v>
@@ -10964,7 +11219,7 @@
         <v>18</v>
       </c>
       <c r="G193" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H193" s="12" t="s">
         <v>23</v>
@@ -10991,7 +11246,7 @@
         <v>18</v>
       </c>
       <c r="G194" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H194" s="12" t="s">
         <v>31</v>
@@ -11020,7 +11275,7 @@
         <v>18</v>
       </c>
       <c r="G195" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H195" s="12" t="s">
         <v>86</v>
@@ -11047,7 +11302,7 @@
         <v>18</v>
       </c>
       <c r="G196" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H196" s="12" t="s">
         <v>35</v>
@@ -11076,7 +11331,7 @@
         <v>18</v>
       </c>
       <c r="G197" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H197" s="12" t="s">
         <v>35</v>
@@ -11105,7 +11360,7 @@
         <v>18</v>
       </c>
       <c r="G198" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H198" s="12" t="s">
         <v>39</v>
@@ -11132,7 +11387,7 @@
         <v>51</v>
       </c>
       <c r="G199" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H199" s="12" t="s">
         <v>52</v>
@@ -11161,7 +11416,7 @@
         <v>51</v>
       </c>
       <c r="G200" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H200" s="12" t="s">
         <v>52</v>
@@ -11190,7 +11445,7 @@
         <v>51</v>
       </c>
       <c r="G201" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H201" s="12" t="s">
         <v>69</v>
@@ -11219,7 +11474,7 @@
         <v>18</v>
       </c>
       <c r="G202" s="12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H202" s="12" t="s">
         <v>43</v>
@@ -11248,7 +11503,7 @@
         <v>18</v>
       </c>
       <c r="G203" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H203" s="12" t="s">
         <v>72</v>
@@ -11275,7 +11530,7 @@
         <v>51</v>
       </c>
       <c r="G204" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H204" s="12" t="s">
         <v>55</v>
@@ -11304,7 +11559,7 @@
         <v>51</v>
       </c>
       <c r="G205" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H205" s="12" t="s">
         <v>58</v>
@@ -11333,7 +11588,7 @@
         <v>51</v>
       </c>
       <c r="G206" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H206" s="12" t="s">
         <v>60</v>
@@ -11362,7 +11617,7 @@
         <v>18</v>
       </c>
       <c r="G207" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H207" s="12" t="s">
         <v>63</v>
@@ -11391,7 +11646,7 @@
         <v>51</v>
       </c>
       <c r="G208" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H208" s="12" t="s">
         <v>52</v>
@@ -11420,7 +11675,7 @@
         <v>51</v>
       </c>
       <c r="G209" s="12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H209" s="12" t="s">
         <v>52</v>
@@ -11449,7 +11704,7 @@
         <v>51</v>
       </c>
       <c r="G210" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H210" s="12" t="s">
         <v>107</v>
